--- a/experiment_results/10428P6.xlsx
+++ b/experiment_results/10428P6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I967"/>
+  <dimension ref="A1:I1112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Wildlife Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Spa and Wellness']</t>
+          <t>Category: ['Spa and Wellness', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Water Sports']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment', 'Water Sports']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Festivals', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 25218P1</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15004,6 +15004,2181 @@
       <c r="H967" t="inlineStr"/>
       <c r="I967" t="inlineStr"/>
     </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>Summarized description: This 4-hour brewery tour in Austin allows you to have the freedom to enjoy three local breweries. This is a great activity for bachelor and bachelorette parties, birthday parties.</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr"/>
+      <c r="C968" t="inlineStr"/>
+      <c r="D968" t="inlineStr"/>
+      <c r="E968" t="inlineStr"/>
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="inlineStr"/>
+      <c r="H968" t="inlineStr"/>
+      <c r="I968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>Title: Brewery Tour: Experience Austin in a Half Day</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr"/>
+      <c r="C969" t="inlineStr"/>
+      <c r="D969" t="inlineStr"/>
+      <c r="E969" t="inlineStr"/>
+      <c r="F969" t="inlineStr"/>
+      <c r="G969" t="inlineStr"/>
+      <c r="H969" t="inlineStr"/>
+      <c r="I969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>TotalReviews: 113</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr"/>
+      <c r="C970" t="inlineStr"/>
+      <c r="D970" t="inlineStr"/>
+      <c r="E970" t="inlineStr"/>
+      <c r="F970" t="inlineStr"/>
+      <c r="G970" t="inlineStr"/>
+      <c r="H970" t="inlineStr"/>
+      <c r="I970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr"/>
+      <c r="C971" t="inlineStr"/>
+      <c r="D971" t="inlineStr"/>
+      <c r="E971" t="inlineStr"/>
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr"/>
+      <c r="I971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 17570P6</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr"/>
+      <c r="C972" t="inlineStr"/>
+      <c r="D972" t="inlineStr"/>
+      <c r="E972" t="inlineStr"/>
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr"/>
+      <c r="I972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>Summarized description: Learn about Texas cowboys and the great cattle drives of the 1800s. Step back in time at the Lyndon B. Johnson State Park &amp; Historic Site. Pass by award-winning wineries &amp; orchards, before visiting Fredericksburg, a historic &amp; picturesque German town.</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr"/>
+      <c r="C973" t="inlineStr"/>
+      <c r="D973" t="inlineStr"/>
+      <c r="E973" t="inlineStr"/>
+      <c r="F973" t="inlineStr"/>
+      <c r="G973" t="inlineStr"/>
+      <c r="H973" t="inlineStr"/>
+      <c r="I973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>Title: Texas Hill Country and LBJ Tour From Austin</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr"/>
+      <c r="C974" t="inlineStr"/>
+      <c r="D974" t="inlineStr"/>
+      <c r="E974" t="inlineStr"/>
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="inlineStr"/>
+      <c r="H974" t="inlineStr"/>
+      <c r="I974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>TotalReviews: 41</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr"/>
+      <c r="C975" t="inlineStr"/>
+      <c r="D975" t="inlineStr"/>
+      <c r="E975" t="inlineStr"/>
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="inlineStr"/>
+      <c r="H975" t="inlineStr"/>
+      <c r="I975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr"/>
+      <c r="C976" t="inlineStr"/>
+      <c r="D976" t="inlineStr"/>
+      <c r="E976" t="inlineStr"/>
+      <c r="F976" t="inlineStr"/>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr"/>
+      <c r="I976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 87887P1</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr"/>
+      <c r="C977" t="inlineStr"/>
+      <c r="D977" t="inlineStr"/>
+      <c r="E977" t="inlineStr"/>
+      <c r="F977" t="inlineStr"/>
+      <c r="G977" t="inlineStr"/>
+      <c r="H977" t="inlineStr"/>
+      <c r="I977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>Summarized description: Lux Drift wine tour is approximately 4-6 hrs from pick up to drop off. Wine Tasting fees/bottle are NOT included in the tour price. Due to COVID19 we may change the schedule or itinerary based on state and local CDC guidance.</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr"/>
+      <c r="C978" t="inlineStr"/>
+      <c r="D978" t="inlineStr"/>
+      <c r="E978" t="inlineStr"/>
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="inlineStr"/>
+      <c r="H978" t="inlineStr"/>
+      <c r="I978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>Title: Texas Hill Country Group Wine Tour by Limousine</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr"/>
+      <c r="C979" t="inlineStr"/>
+      <c r="D979" t="inlineStr"/>
+      <c r="E979" t="inlineStr"/>
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="inlineStr"/>
+      <c r="H979" t="inlineStr"/>
+      <c r="I979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>TotalReviews: 29</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr"/>
+      <c r="C980" t="inlineStr"/>
+      <c r="D980" t="inlineStr"/>
+      <c r="E980" t="inlineStr"/>
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="inlineStr"/>
+      <c r="H980" t="inlineStr"/>
+      <c r="I980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr"/>
+      <c r="C981" t="inlineStr"/>
+      <c r="D981" t="inlineStr"/>
+      <c r="E981" t="inlineStr"/>
+      <c r="F981" t="inlineStr"/>
+      <c r="G981" t="inlineStr"/>
+      <c r="H981" t="inlineStr"/>
+      <c r="I981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199613P8</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr"/>
+      <c r="C982" t="inlineStr"/>
+      <c r="D982" t="inlineStr"/>
+      <c r="E982" t="inlineStr"/>
+      <c r="F982" t="inlineStr"/>
+      <c r="G982" t="inlineStr"/>
+      <c r="H982" t="inlineStr"/>
+      <c r="I982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr"/>
+      <c r="C983" t="inlineStr"/>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="inlineStr"/>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr"/>
+      <c r="I983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr"/>
+      <c r="C984" t="inlineStr"/>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr"/>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr"/>
+      <c r="I984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>TotalReviews: 19</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr"/>
+      <c r="C985" t="inlineStr"/>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr"/>
+      <c r="I985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr"/>
+      <c r="C986" t="inlineStr"/>
+      <c r="D986" t="inlineStr"/>
+      <c r="E986" t="inlineStr"/>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr"/>
+      <c r="I986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199613P1</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr"/>
+      <c r="C987" t="inlineStr"/>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr"/>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
+      <c r="H987" t="inlineStr"/>
+      <c r="I987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr"/>
+      <c r="C988" t="inlineStr"/>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="inlineStr"/>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr"/>
+      <c r="I988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr"/>
+      <c r="C989" t="inlineStr"/>
+      <c r="D989" t="inlineStr"/>
+      <c r="E989" t="inlineStr"/>
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr"/>
+      <c r="H989" t="inlineStr"/>
+      <c r="I989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>TotalReviews: 14</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr"/>
+      <c r="C990" t="inlineStr"/>
+      <c r="D990" t="inlineStr"/>
+      <c r="E990" t="inlineStr"/>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr"/>
+      <c r="H990" t="inlineStr"/>
+      <c r="I990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr"/>
+      <c r="C991" t="inlineStr"/>
+      <c r="D991" t="inlineStr"/>
+      <c r="E991" t="inlineStr"/>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr"/>
+      <c r="H991" t="inlineStr"/>
+      <c r="I991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 51066P9</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr"/>
+      <c r="C992" t="inlineStr"/>
+      <c r="D992" t="inlineStr"/>
+      <c r="E992" t="inlineStr"/>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr"/>
+      <c r="H992" t="inlineStr"/>
+      <c r="I992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr"/>
+      <c r="C993" t="inlineStr"/>
+      <c r="D993" t="inlineStr"/>
+      <c r="E993" t="inlineStr"/>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr"/>
+      <c r="H993" t="inlineStr"/>
+      <c r="I993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>Title: Brew and Que Tour in Austin</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr"/>
+      <c r="C994" t="inlineStr"/>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr"/>
+      <c r="I994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>TotalReviews: 12</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr"/>
+      <c r="C995" t="inlineStr"/>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="inlineStr"/>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr"/>
+      <c r="I995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr"/>
+      <c r="C996" t="inlineStr"/>
+      <c r="D996" t="inlineStr"/>
+      <c r="E996" t="inlineStr"/>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr"/>
+      <c r="H996" t="inlineStr"/>
+      <c r="I996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 25815P7</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr"/>
+      <c r="C997" t="inlineStr"/>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr"/>
+      <c r="I997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>Summarized description: Get an insider's view of how olives are pressed and what makes olive oil "Extra Virgin" This tour is a short drive outside of Austin Texas. Topics include History of the Orchard, How olives were milled and pressed, Extra Virgin 101.</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr"/>
+      <c r="C998" t="inlineStr"/>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr"/>
+      <c r="I998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>Title: Texas Hill Country Olive Mill Tour &amp; Extra Virgin 101</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr"/>
+      <c r="C999" t="inlineStr"/>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr"/>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr"/>
+      <c r="I999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>TotalReviews: 9</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr"/>
+      <c r="C1000" t="inlineStr"/>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr"/>
+      <c r="I1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr"/>
+      <c r="C1001" t="inlineStr"/>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="inlineStr"/>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr"/>
+      <c r="I1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199613P4</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr"/>
+      <c r="C1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr"/>
+      <c r="I1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries. Stop at iconic Salt Lick BBQ and Cellars, plus time for shopping, dining and/or drinks in two charming hill country towns. This semi-private tour has a max capacity of 13, giving you a uniquely intimate experience.</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr"/>
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr"/>
+      <c r="I1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Hill Country Wine Tour of Dripping Springs and Wimberley </t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr"/>
+      <c r="C1004" t="inlineStr"/>
+      <c r="D1004" t="inlineStr"/>
+      <c r="E1004" t="inlineStr"/>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr"/>
+      <c r="H1004" t="inlineStr"/>
+      <c r="I1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>TotalReviews: 8</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr"/>
+      <c r="C1005" t="inlineStr"/>
+      <c r="D1005" t="inlineStr"/>
+      <c r="E1005" t="inlineStr"/>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr"/>
+      <c r="H1005" t="inlineStr"/>
+      <c r="I1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr"/>
+      <c r="C1006" t="inlineStr"/>
+      <c r="D1006" t="inlineStr"/>
+      <c r="E1006" t="inlineStr"/>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="inlineStr"/>
+      <c r="H1006" t="inlineStr"/>
+      <c r="I1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 87115P52</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr"/>
+      <c r="C1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr"/>
+      <c r="E1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="inlineStr"/>
+      <c r="H1007" t="inlineStr"/>
+      <c r="I1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr"/>
+      <c r="C1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr"/>
+      <c r="E1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="inlineStr"/>
+      <c r="I1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr"/>
+      <c r="C1009" t="inlineStr"/>
+      <c r="D1009" t="inlineStr"/>
+      <c r="E1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="inlineStr"/>
+      <c r="I1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>TotalReviews: 5</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr"/>
+      <c r="C1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr"/>
+      <c r="E1010" t="inlineStr"/>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr"/>
+      <c r="H1010" t="inlineStr"/>
+      <c r="I1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr"/>
+      <c r="C1011" t="inlineStr"/>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="inlineStr"/>
+      <c r="H1011" t="inlineStr"/>
+      <c r="I1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 19328P2</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr"/>
+      <c r="C1012" t="inlineStr"/>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="inlineStr"/>
+      <c r="H1012" t="inlineStr"/>
+      <c r="I1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr"/>
+      <c r="C1013" t="inlineStr"/>
+      <c r="D1013" t="inlineStr"/>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="inlineStr"/>
+      <c r="H1013" t="inlineStr"/>
+      <c r="I1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr"/>
+      <c r="C1014" t="inlineStr"/>
+      <c r="D1014" t="inlineStr"/>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="inlineStr"/>
+      <c r="H1014" t="inlineStr"/>
+      <c r="I1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>TotalReviews: 4</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr"/>
+      <c r="C1015" t="inlineStr"/>
+      <c r="D1015" t="inlineStr"/>
+      <c r="E1015" t="inlineStr"/>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr"/>
+      <c r="H1015" t="inlineStr"/>
+      <c r="I1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr"/>
+      <c r="C1016" t="inlineStr"/>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="inlineStr"/>
+      <c r="H1016" t="inlineStr"/>
+      <c r="I1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 201132P1</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr"/>
+      <c r="C1017" t="inlineStr"/>
+      <c r="D1017" t="inlineStr"/>
+      <c r="E1017" t="inlineStr"/>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="inlineStr"/>
+      <c r="H1017" t="inlineStr"/>
+      <c r="I1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Summarized description: Enjoy throwback tunes while sipping on award winning Texas wines. Our motto Peace, Love, and Wine is definitely felt during your 5 hour tour through the beautiful hills of the Texas hill country.</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr"/>
+      <c r="C1018" t="inlineStr"/>
+      <c r="D1018" t="inlineStr"/>
+      <c r="E1018" t="inlineStr"/>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="inlineStr"/>
+      <c r="H1018" t="inlineStr"/>
+      <c r="I1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>Title: Retro Wine Tour in A Vintage VW Bus</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr"/>
+      <c r="C1019" t="inlineStr"/>
+      <c r="D1019" t="inlineStr"/>
+      <c r="E1019" t="inlineStr"/>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="inlineStr"/>
+      <c r="H1019" t="inlineStr"/>
+      <c r="I1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>TotalReviews: 4</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr"/>
+      <c r="C1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr"/>
+      <c r="E1020" t="inlineStr"/>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="inlineStr"/>
+      <c r="H1020" t="inlineStr"/>
+      <c r="I1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr"/>
+      <c r="C1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr"/>
+      <c r="E1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="inlineStr"/>
+      <c r="H1021" t="inlineStr"/>
+      <c r="I1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199613P3</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr"/>
+      <c r="C1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr"/>
+      <c r="E1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="inlineStr"/>
+      <c r="H1022" t="inlineStr"/>
+      <c r="I1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr"/>
+      <c r="C1023" t="inlineStr"/>
+      <c r="D1023" t="inlineStr"/>
+      <c r="E1023" t="inlineStr"/>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="inlineStr"/>
+      <c r="H1023" t="inlineStr"/>
+      <c r="I1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr"/>
+      <c r="C1024" t="inlineStr"/>
+      <c r="D1024" t="inlineStr"/>
+      <c r="E1024" t="inlineStr"/>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="inlineStr"/>
+      <c r="H1024" t="inlineStr"/>
+      <c r="I1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>TotalReviews: 4</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
+      <c r="C1025" t="inlineStr"/>
+      <c r="D1025" t="inlineStr"/>
+      <c r="E1025" t="inlineStr"/>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="inlineStr"/>
+      <c r="H1025" t="inlineStr"/>
+      <c r="I1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr"/>
+      <c r="C1026" t="inlineStr"/>
+      <c r="D1026" t="inlineStr"/>
+      <c r="E1026" t="inlineStr"/>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="inlineStr"/>
+      <c r="H1026" t="inlineStr"/>
+      <c r="I1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 327690P1</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr"/>
+      <c r="C1027" t="inlineStr"/>
+      <c r="D1027" t="inlineStr"/>
+      <c r="E1027" t="inlineStr"/>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="inlineStr"/>
+      <c r="H1027" t="inlineStr"/>
+      <c r="I1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>Summarized description: The Half Day Hill Country in Limousine wine tour is approximately 4-6 hours from pick up to drop off. You will tour 3 great Driftwood/Dripping Springs wineries where you will enjoy the absolute best wines.</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr"/>
+      <c r="C1028" t="inlineStr"/>
+      <c r="D1028" t="inlineStr"/>
+      <c r="E1028" t="inlineStr"/>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="inlineStr"/>
+      <c r="H1028" t="inlineStr"/>
+      <c r="I1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>Title: Half Day Wine Tour with Luxury Limousine in Austin</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr"/>
+      <c r="C1029" t="inlineStr"/>
+      <c r="D1029" t="inlineStr"/>
+      <c r="E1029" t="inlineStr"/>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="inlineStr"/>
+      <c r="H1029" t="inlineStr"/>
+      <c r="I1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>TotalReviews: 3</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr"/>
+      <c r="C1030" t="inlineStr"/>
+      <c r="D1030" t="inlineStr"/>
+      <c r="E1030" t="inlineStr"/>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="inlineStr"/>
+      <c r="H1030" t="inlineStr"/>
+      <c r="I1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr"/>
+      <c r="C1031" t="inlineStr"/>
+      <c r="D1031" t="inlineStr"/>
+      <c r="E1031" t="inlineStr"/>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="inlineStr"/>
+      <c r="H1031" t="inlineStr"/>
+      <c r="I1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90519P11</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr"/>
+      <c r="C1032" t="inlineStr"/>
+      <c r="D1032" t="inlineStr"/>
+      <c r="E1032" t="inlineStr"/>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="inlineStr"/>
+      <c r="H1032" t="inlineStr"/>
+      <c r="I1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>Summarized description: The 290 Wine Shuttle costs $39.99 and stops at each of the locations on the route approximately every 10 minutes. You can't book a private bus to get this experience! Book your Austin to Fredericksburg Roundtrip Shuttle ticket today!!</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr"/>
+      <c r="C1033" t="inlineStr"/>
+      <c r="D1033" t="inlineStr"/>
+      <c r="E1033" t="inlineStr"/>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="inlineStr"/>
+      <c r="H1033" t="inlineStr"/>
+      <c r="I1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>Title: Austin to Fredericksburg Round Trip Transportation</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr"/>
+      <c r="C1034" t="inlineStr"/>
+      <c r="D1034" t="inlineStr"/>
+      <c r="E1034" t="inlineStr"/>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="inlineStr"/>
+      <c r="H1034" t="inlineStr"/>
+      <c r="I1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>TotalReviews: 3</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr"/>
+      <c r="C1035" t="inlineStr"/>
+      <c r="D1035" t="inlineStr"/>
+      <c r="E1035" t="inlineStr"/>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="inlineStr"/>
+      <c r="H1035" t="inlineStr"/>
+      <c r="I1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>Category: ['Transportation &amp; Travel Services']</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr"/>
+      <c r="C1036" t="inlineStr"/>
+      <c r="D1036" t="inlineStr"/>
+      <c r="E1036" t="inlineStr"/>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="inlineStr"/>
+      <c r="H1036" t="inlineStr"/>
+      <c r="I1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 324527P1</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr"/>
+      <c r="C1037" t="inlineStr"/>
+      <c r="D1037" t="inlineStr"/>
+      <c r="E1037" t="inlineStr"/>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="inlineStr"/>
+      <c r="H1037" t="inlineStr"/>
+      <c r="I1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>Summarized description: Enjoy a personalized Tour of Austin and surrounding Hill Country with up to 14 guests. We have some great spots we know you'll love or we can plan a unique trip just for you. Great for a bachelor/ettes party’s or can be a site seeing family trip!</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr"/>
+      <c r="C1038" t="inlineStr"/>
+      <c r="D1038" t="inlineStr"/>
+      <c r="E1038" t="inlineStr"/>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="inlineStr"/>
+      <c r="H1038" t="inlineStr"/>
+      <c r="I1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>Title: Personalized Tour of Austin and Surrounding Hill Country</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr"/>
+      <c r="C1039" t="inlineStr"/>
+      <c r="D1039" t="inlineStr"/>
+      <c r="E1039" t="inlineStr"/>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="inlineStr"/>
+      <c r="H1039" t="inlineStr"/>
+      <c r="I1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>TotalReviews: 2</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr"/>
+      <c r="C1040" t="inlineStr"/>
+      <c r="D1040" t="inlineStr"/>
+      <c r="E1040" t="inlineStr"/>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="inlineStr"/>
+      <c r="H1040" t="inlineStr"/>
+      <c r="I1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr"/>
+      <c r="C1041" t="inlineStr"/>
+      <c r="D1041" t="inlineStr"/>
+      <c r="E1041" t="inlineStr"/>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="inlineStr"/>
+      <c r="H1041" t="inlineStr"/>
+      <c r="I1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 288955P2</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr"/>
+      <c r="C1042" t="inlineStr"/>
+      <c r="D1042" t="inlineStr"/>
+      <c r="E1042" t="inlineStr"/>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="inlineStr"/>
+      <c r="H1042" t="inlineStr"/>
+      <c r="I1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr"/>
+      <c r="C1043" t="inlineStr"/>
+      <c r="D1043" t="inlineStr"/>
+      <c r="E1043" t="inlineStr"/>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="inlineStr"/>
+      <c r="H1043" t="inlineStr"/>
+      <c r="I1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>Title: Beer &amp; Wine Trail Friday (4pm-8pm)</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr"/>
+      <c r="C1044" t="inlineStr"/>
+      <c r="D1044" t="inlineStr"/>
+      <c r="E1044" t="inlineStr"/>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="inlineStr"/>
+      <c r="H1044" t="inlineStr"/>
+      <c r="I1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>TotalReviews: 2</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr"/>
+      <c r="C1045" t="inlineStr"/>
+      <c r="D1045" t="inlineStr"/>
+      <c r="E1045" t="inlineStr"/>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="inlineStr"/>
+      <c r="H1045" t="inlineStr"/>
+      <c r="I1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr"/>
+      <c r="C1046" t="inlineStr"/>
+      <c r="D1046" t="inlineStr"/>
+      <c r="E1046" t="inlineStr"/>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="inlineStr"/>
+      <c r="H1046" t="inlineStr"/>
+      <c r="I1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 348643P1</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr"/>
+      <c r="C1047" t="inlineStr"/>
+      <c r="D1047" t="inlineStr"/>
+      <c r="E1047" t="inlineStr"/>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="inlineStr"/>
+      <c r="H1047" t="inlineStr"/>
+      <c r="I1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Summarized description: We are the company to get you out of Austin for the day! We take you on breathtaking views of the amazing Texas Hill Country. You will be guided by one of our very experienced hosts who will pick you up in the downtown Austin area.</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr"/>
+      <c r="C1048" t="inlineStr"/>
+      <c r="D1048" t="inlineStr"/>
+      <c r="E1048" t="inlineStr"/>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="inlineStr"/>
+      <c r="H1048" t="inlineStr"/>
+      <c r="I1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>Title: Escape the day from Austin to Fredericksburg, Luchenbach</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr"/>
+      <c r="C1049" t="inlineStr"/>
+      <c r="D1049" t="inlineStr"/>
+      <c r="E1049" t="inlineStr"/>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="inlineStr"/>
+      <c r="H1049" t="inlineStr"/>
+      <c r="I1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr"/>
+      <c r="C1050" t="inlineStr"/>
+      <c r="D1050" t="inlineStr"/>
+      <c r="E1050" t="inlineStr"/>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="inlineStr"/>
+      <c r="H1050" t="inlineStr"/>
+      <c r="I1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr"/>
+      <c r="C1051" t="inlineStr"/>
+      <c r="D1051" t="inlineStr"/>
+      <c r="E1051" t="inlineStr"/>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="inlineStr"/>
+      <c r="H1051" t="inlineStr"/>
+      <c r="I1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 288955P8</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr"/>
+      <c r="C1052" t="inlineStr"/>
+      <c r="D1052" t="inlineStr"/>
+      <c r="E1052" t="inlineStr"/>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="inlineStr"/>
+      <c r="H1052" t="inlineStr"/>
+      <c r="I1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>Summarized description:  Shuttle bus takes group on Central Texas Wine Trail. Stops include Dancing Bee Winery, Axis Winery and 3 Texans Winery. Plan for a 1-hour stop at each location as venue staff hosts you.</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr"/>
+      <c r="C1053" t="inlineStr"/>
+      <c r="D1053" t="inlineStr"/>
+      <c r="E1053" t="inlineStr"/>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="inlineStr"/>
+      <c r="H1053" t="inlineStr"/>
+      <c r="I1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>Title: Wine Trail Tour Sunday (2pm-6pm)</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr"/>
+      <c r="C1054" t="inlineStr"/>
+      <c r="D1054" t="inlineStr"/>
+      <c r="E1054" t="inlineStr"/>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="inlineStr"/>
+      <c r="H1054" t="inlineStr"/>
+      <c r="I1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr"/>
+      <c r="C1055" t="inlineStr"/>
+      <c r="D1055" t="inlineStr"/>
+      <c r="E1055" t="inlineStr"/>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="inlineStr"/>
+      <c r="H1055" t="inlineStr"/>
+      <c r="I1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr"/>
+      <c r="C1056" t="inlineStr"/>
+      <c r="D1056" t="inlineStr"/>
+      <c r="E1056" t="inlineStr"/>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="inlineStr"/>
+      <c r="H1056" t="inlineStr"/>
+      <c r="I1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 288955P3</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr"/>
+      <c r="C1057" t="inlineStr"/>
+      <c r="D1057" t="inlineStr"/>
+      <c r="E1057" t="inlineStr"/>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="inlineStr"/>
+      <c r="H1057" t="inlineStr"/>
+      <c r="I1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr"/>
+      <c r="C1058" t="inlineStr"/>
+      <c r="D1058" t="inlineStr"/>
+      <c r="E1058" t="inlineStr"/>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="inlineStr"/>
+      <c r="H1058" t="inlineStr"/>
+      <c r="I1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>Title: Wine &amp; Beer Trail Saturday (3pm-7pm)</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr"/>
+      <c r="C1059" t="inlineStr"/>
+      <c r="D1059" t="inlineStr"/>
+      <c r="E1059" t="inlineStr"/>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="inlineStr"/>
+      <c r="H1059" t="inlineStr"/>
+      <c r="I1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr"/>
+      <c r="C1060" t="inlineStr"/>
+      <c r="D1060" t="inlineStr"/>
+      <c r="E1060" t="inlineStr"/>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="inlineStr"/>
+      <c r="H1060" t="inlineStr"/>
+      <c r="I1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr"/>
+      <c r="C1061" t="inlineStr"/>
+      <c r="D1061" t="inlineStr"/>
+      <c r="E1061" t="inlineStr"/>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="inlineStr"/>
+      <c r="H1061" t="inlineStr"/>
+      <c r="I1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90519P16</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr"/>
+      <c r="C1062" t="inlineStr"/>
+      <c r="D1062" t="inlineStr"/>
+      <c r="E1062" t="inlineStr"/>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="inlineStr"/>
+      <c r="H1062" t="inlineStr"/>
+      <c r="I1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr"/>
+      <c r="C1063" t="inlineStr"/>
+      <c r="D1063" t="inlineStr"/>
+      <c r="E1063" t="inlineStr"/>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="inlineStr"/>
+      <c r="H1063" t="inlineStr"/>
+      <c r="I1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>Title: 290 Wine Shuttle Austin Connection</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr"/>
+      <c r="C1064" t="inlineStr"/>
+      <c r="D1064" t="inlineStr"/>
+      <c r="E1064" t="inlineStr"/>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="inlineStr"/>
+      <c r="H1064" t="inlineStr"/>
+      <c r="I1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr"/>
+      <c r="C1065" t="inlineStr"/>
+      <c r="D1065" t="inlineStr"/>
+      <c r="E1065" t="inlineStr"/>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="inlineStr"/>
+      <c r="H1065" t="inlineStr"/>
+      <c r="I1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr"/>
+      <c r="C1066" t="inlineStr"/>
+      <c r="D1066" t="inlineStr"/>
+      <c r="E1066" t="inlineStr"/>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="inlineStr"/>
+      <c r="H1066" t="inlineStr"/>
+      <c r="I1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 251722P1</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr"/>
+      <c r="C1067" t="inlineStr"/>
+      <c r="D1067" t="inlineStr"/>
+      <c r="E1067" t="inlineStr"/>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="inlineStr"/>
+      <c r="H1067" t="inlineStr"/>
+      <c r="I1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore some of Texas' most popular wineries and learn about the wine making process. Taste the flavors of Texas at the Austin's most famous BBQ joint. Enjoy at least 45 minutes at each stop.</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr"/>
+      <c r="C1068" t="inlineStr"/>
+      <c r="D1068" t="inlineStr"/>
+      <c r="E1068" t="inlineStr"/>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="inlineStr"/>
+      <c r="H1068" t="inlineStr"/>
+      <c r="I1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>Title:  Salt Lick BBQ and Winery Shuttle Tour</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr"/>
+      <c r="C1069" t="inlineStr"/>
+      <c r="D1069" t="inlineStr"/>
+      <c r="E1069" t="inlineStr"/>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="inlineStr"/>
+      <c r="H1069" t="inlineStr"/>
+      <c r="I1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr"/>
+      <c r="C1070" t="inlineStr"/>
+      <c r="D1070" t="inlineStr"/>
+      <c r="E1070" t="inlineStr"/>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="inlineStr"/>
+      <c r="H1070" t="inlineStr"/>
+      <c r="I1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr"/>
+      <c r="C1071" t="inlineStr"/>
+      <c r="D1071" t="inlineStr"/>
+      <c r="E1071" t="inlineStr"/>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="inlineStr"/>
+      <c r="H1071" t="inlineStr"/>
+      <c r="I1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199613P5</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr"/>
+      <c r="C1072" t="inlineStr"/>
+      <c r="D1072" t="inlineStr"/>
+      <c r="E1072" t="inlineStr"/>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="inlineStr"/>
+      <c r="H1072" t="inlineStr"/>
+      <c r="I1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries and a stop at iconic Salt Lick BBQ and Cellars. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr"/>
+      <c r="C1073" t="inlineStr"/>
+      <c r="D1073" t="inlineStr"/>
+      <c r="E1073" t="inlineStr"/>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="inlineStr"/>
+      <c r="H1073" t="inlineStr"/>
+      <c r="I1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>Title: Private Driftwood Wine and BBQ Tour from Austin</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr"/>
+      <c r="C1074" t="inlineStr"/>
+      <c r="D1074" t="inlineStr"/>
+      <c r="E1074" t="inlineStr"/>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="inlineStr"/>
+      <c r="H1074" t="inlineStr"/>
+      <c r="I1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr"/>
+      <c r="C1075" t="inlineStr"/>
+      <c r="D1075" t="inlineStr"/>
+      <c r="E1075" t="inlineStr"/>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="inlineStr"/>
+      <c r="H1075" t="inlineStr"/>
+      <c r="I1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr"/>
+      <c r="C1076" t="inlineStr"/>
+      <c r="D1076" t="inlineStr"/>
+      <c r="E1076" t="inlineStr"/>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="inlineStr"/>
+      <c r="H1076" t="inlineStr"/>
+      <c r="I1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90519P15</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr"/>
+      <c r="C1077" t="inlineStr"/>
+      <c r="D1077" t="inlineStr"/>
+      <c r="E1077" t="inlineStr"/>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="inlineStr"/>
+      <c r="H1077" t="inlineStr"/>
+      <c r="I1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr"/>
+      <c r="C1078" t="inlineStr"/>
+      <c r="D1078" t="inlineStr"/>
+      <c r="E1078" t="inlineStr"/>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="inlineStr"/>
+      <c r="H1078" t="inlineStr"/>
+      <c r="I1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>Title: 290 Wine Shuttle Austin Connection</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr"/>
+      <c r="C1079" t="inlineStr"/>
+      <c r="D1079" t="inlineStr"/>
+      <c r="E1079" t="inlineStr"/>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="inlineStr"/>
+      <c r="H1079" t="inlineStr"/>
+      <c r="I1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr"/>
+      <c r="C1080" t="inlineStr"/>
+      <c r="D1080" t="inlineStr"/>
+      <c r="E1080" t="inlineStr"/>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="inlineStr"/>
+      <c r="H1080" t="inlineStr"/>
+      <c r="I1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr"/>
+      <c r="C1081" t="inlineStr"/>
+      <c r="D1081" t="inlineStr"/>
+      <c r="E1081" t="inlineStr"/>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="inlineStr"/>
+      <c r="H1081" t="inlineStr"/>
+      <c r="I1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 320728P2775</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr"/>
+      <c r="C1082" t="inlineStr"/>
+      <c r="D1082" t="inlineStr"/>
+      <c r="E1082" t="inlineStr"/>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="inlineStr"/>
+      <c r="H1082" t="inlineStr"/>
+      <c r="I1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>Summarized description: Expert sommeliers and winemakers will guide you through tastings of exceptional wines, sharing their deep knowledge and passion for winemaking. Don't miss the opportunity to create lasting memories on this Half-Day Private Texas Hill Country Wine Tour.</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr"/>
+      <c r="C1083" t="inlineStr"/>
+      <c r="D1083" t="inlineStr"/>
+      <c r="E1083" t="inlineStr"/>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="inlineStr"/>
+      <c r="H1083" t="inlineStr"/>
+      <c r="I1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>Title: Half-Day Private Texas Hill Country Wine Tour from Austin</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr"/>
+      <c r="C1084" t="inlineStr"/>
+      <c r="D1084" t="inlineStr"/>
+      <c r="E1084" t="inlineStr"/>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="inlineStr"/>
+      <c r="H1084" t="inlineStr"/>
+      <c r="I1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr"/>
+      <c r="C1085" t="inlineStr"/>
+      <c r="D1085" t="inlineStr"/>
+      <c r="E1085" t="inlineStr"/>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="inlineStr"/>
+      <c r="H1085" t="inlineStr"/>
+      <c r="I1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr"/>
+      <c r="C1086" t="inlineStr"/>
+      <c r="D1086" t="inlineStr"/>
+      <c r="E1086" t="inlineStr"/>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="inlineStr"/>
+      <c r="H1086" t="inlineStr"/>
+      <c r="I1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 454873P1</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr"/>
+      <c r="C1087" t="inlineStr"/>
+      <c r="D1087" t="inlineStr"/>
+      <c r="E1087" t="inlineStr"/>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="inlineStr"/>
+      <c r="H1087" t="inlineStr"/>
+      <c r="I1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>Summarized description: The Brewery 5K Running Series includes a free beer and swag. The Bullock Texas State History Museum offers a self guided tour of the city's history. Terry Black's BBQ is one of Austin's most famous BBQ joints.</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr"/>
+      <c r="C1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr"/>
+      <c r="E1088" t="inlineStr"/>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="inlineStr"/>
+      <c r="H1088" t="inlineStr"/>
+      <c r="I1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Brewery 5K Fun Run, BBQ, and Texas History Museum in Austin </t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr"/>
+      <c r="C1089" t="inlineStr"/>
+      <c r="D1089" t="inlineStr"/>
+      <c r="E1089" t="inlineStr"/>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="inlineStr"/>
+      <c r="H1089" t="inlineStr"/>
+      <c r="I1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr"/>
+      <c r="C1090" t="inlineStr"/>
+      <c r="D1090" t="inlineStr"/>
+      <c r="E1090" t="inlineStr"/>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr"/>
+      <c r="H1090" t="inlineStr"/>
+      <c r="I1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr"/>
+      <c r="C1091" t="inlineStr"/>
+      <c r="D1091" t="inlineStr"/>
+      <c r="E1091" t="inlineStr"/>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="inlineStr"/>
+      <c r="H1091" t="inlineStr"/>
+      <c r="I1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 87887P7</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr"/>
+      <c r="C1092" t="inlineStr"/>
+      <c r="D1092" t="inlineStr"/>
+      <c r="E1092" t="inlineStr"/>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr"/>
+      <c r="H1092" t="inlineStr"/>
+      <c r="I1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>Summarized description: Enjoy traveling to local Austinite favorites in a private limousine. Visit distilleries that show you how the process works behind the scenes. Get a sampling of those you think are your favorites.</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr"/>
+      <c r="C1093" t="inlineStr"/>
+      <c r="D1093" t="inlineStr"/>
+      <c r="E1093" t="inlineStr"/>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="inlineStr"/>
+      <c r="H1093" t="inlineStr"/>
+      <c r="I1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>Title: Customizable Austin Distillery and Brewery Tour</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr"/>
+      <c r="C1094" t="inlineStr"/>
+      <c r="D1094" t="inlineStr"/>
+      <c r="E1094" t="inlineStr"/>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="inlineStr"/>
+      <c r="H1094" t="inlineStr"/>
+      <c r="I1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr"/>
+      <c r="C1095" t="inlineStr"/>
+      <c r="D1095" t="inlineStr"/>
+      <c r="E1095" t="inlineStr"/>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="inlineStr"/>
+      <c r="H1095" t="inlineStr"/>
+      <c r="I1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr"/>
+      <c r="C1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr"/>
+      <c r="E1096" t="inlineStr"/>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr"/>
+      <c r="H1096" t="inlineStr"/>
+      <c r="I1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 263756P1</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr"/>
+      <c r="C1097" t="inlineStr"/>
+      <c r="D1097" t="inlineStr"/>
+      <c r="E1097" t="inlineStr"/>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="inlineStr"/>
+      <c r="H1097" t="inlineStr"/>
+      <c r="I1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>Summarized description: Professional guide who knows Austin and it's beer. Behind the scenes facility tour at one brewery. Hang with locals, eat at an Austin food truck. Visit 3 different breweries in one day.</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr"/>
+      <c r="C1098" t="inlineStr"/>
+      <c r="D1098" t="inlineStr"/>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="inlineStr"/>
+      <c r="H1098" t="inlineStr"/>
+      <c r="I1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>Title: Half-Day Brewery and Craft Beer Tour in Austin with Tastings</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr"/>
+      <c r="C1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr"/>
+      <c r="E1099" t="inlineStr"/>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="inlineStr"/>
+      <c r="H1099" t="inlineStr"/>
+      <c r="I1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr"/>
+      <c r="C1100" t="inlineStr"/>
+      <c r="D1100" t="inlineStr"/>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="inlineStr"/>
+      <c r="H1100" t="inlineStr"/>
+      <c r="I1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr"/>
+      <c r="C1101" t="inlineStr"/>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="inlineStr"/>
+      <c r="H1101" t="inlineStr"/>
+      <c r="I1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 87115P25</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr"/>
+      <c r="C1102" t="inlineStr"/>
+      <c r="D1102" t="inlineStr"/>
+      <c r="E1102" t="inlineStr"/>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="inlineStr"/>
+      <c r="H1102" t="inlineStr"/>
+      <c r="I1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr"/>
+      <c r="C1103" t="inlineStr"/>
+      <c r="D1103" t="inlineStr"/>
+      <c r="E1103" t="inlineStr"/>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="inlineStr"/>
+      <c r="H1103" t="inlineStr"/>
+      <c r="I1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>Title: Guided Tour of Austin's Highlights</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr"/>
+      <c r="C1104" t="inlineStr"/>
+      <c r="D1104" t="inlineStr"/>
+      <c r="E1104" t="inlineStr"/>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="inlineStr"/>
+      <c r="H1104" t="inlineStr"/>
+      <c r="I1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr"/>
+      <c r="C1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr"/>
+      <c r="E1105" t="inlineStr"/>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr"/>
+      <c r="H1105" t="inlineStr"/>
+      <c r="I1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr"/>
+      <c r="E1106" t="inlineStr"/>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr"/>
+      <c r="H1106" t="inlineStr"/>
+      <c r="I1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 260194P1</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr"/>
+      <c r="C1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr"/>
+      <c r="E1107" t="inlineStr"/>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr"/>
+      <c r="H1107" t="inlineStr"/>
+      <c r="I1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr"/>
+      <c r="C1108" t="inlineStr"/>
+      <c r="D1108" t="inlineStr"/>
+      <c r="E1108" t="inlineStr"/>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="inlineStr"/>
+      <c r="H1108" t="inlineStr"/>
+      <c r="I1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr"/>
+      <c r="C1109" t="inlineStr"/>
+      <c r="D1109" t="inlineStr"/>
+      <c r="E1109" t="inlineStr"/>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="inlineStr"/>
+      <c r="H1109" t="inlineStr"/>
+      <c r="I1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr"/>
+      <c r="C1110" t="inlineStr"/>
+      <c r="D1110" t="inlineStr"/>
+      <c r="E1110" t="inlineStr"/>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="inlineStr"/>
+      <c r="H1110" t="inlineStr"/>
+      <c r="I1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
+      <c r="C1111" t="inlineStr"/>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="inlineStr"/>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr"/>
+      <c r="H1111" t="inlineStr"/>
+      <c r="I1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
+      <c r="C1112" t="inlineStr"/>
+      <c r="D1112" t="inlineStr"/>
+      <c r="E1112" t="inlineStr"/>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="inlineStr"/>
+      <c r="H1112" t="inlineStr"/>
+      <c r="I1112" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/10428P6.xlsx
+++ b/experiment_results/10428P6.xlsx
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Spa and Wellness', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Spa and Wellness']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Festivals', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25218P1</t>
+          <t>PRODUCTCODE: 5718CITY</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: This 4-hour brewery tour in Austin allows you to have the freedom to enjoy three local breweries. This is a great activity for bachelor and bachelorette parties, birthday parties.</t>
+          <t>Summarized description: This signature Austin tour covers 30 miles, 50+ points of interest, in 90 minutes (1.5 hours) Non-STOP. You'll get to see iconic places such as the Texas Capitol.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Brewery Tour: Experience Austin in a Half Day</t>
+          <t>Title: Austin and Hill Country Sightseeing Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 113</t>
+          <t>TotalReviews: 814</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17570P6</t>
+          <t>PRODUCTCODE: 5718P1</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Texas cowboys and the great cattle drives of the 1800s. Step back in time at the Lyndon B. Johnson State Park &amp; Historic Site. Pass by award-winning wineries &amp; orchards, before visiting Fredericksburg, a historic &amp; picturesque German town.</t>
+          <t>Summarized description: 2.5-hour tour (with stops) aboard a 14-passenger convertible Mercedes-Benz sprinter van. Stops include Driskill Hotel, Barton Springs, and the award-winning Austin Public Library. Route subject to change due to closures.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country and LBJ Tour From Austin</t>
+          <t>Title: Austin and Hill Country Panoramic Sightseeing Tour</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 41</t>
+          <t>TotalReviews: 237</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87887P1</t>
+          <t>PRODUCTCODE: 17570P6</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Lux Drift wine tour is approximately 4-6 hrs from pick up to drop off. Wine Tasting fees/bottle are NOT included in the tour price. Due to COVID19 we may change the schedule or itinerary based on state and local CDC guidance.</t>
+          <t>Summarized description: Learn about Texas cowboys and the great cattle drives of the 1800s. Step back in time at the Lyndon B. Johnson State Park &amp; Historic Site. Pass by award-winning wineries &amp; orchards, before visiting Fredericksburg, a historic &amp; picturesque German town.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country Group Wine Tour by Limousine</t>
+          <t>Title: Texas Hill Country and LBJ Tour From Austin</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 41</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P8</t>
+          <t>PRODUCTCODE: 87887P1</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: Lux Drift wine tour is approximately 4-6 hrs from pick up to drop off. Wine Tasting fees/bottle are NOT included in the tour price. Due to COVID19 we may change the schedule or itinerary based on state and local CDC guidance.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
+          <t>Title: Texas Hill Country Group Wine Tour by Limousine</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P1</t>
+          <t>PRODUCTCODE: 199613P8</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
+          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P9</t>
+          <t>PRODUCTCODE: 199613P1</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
+          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Brew and Que Tour in Austin</t>
+          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25815P7</t>
+          <t>PRODUCTCODE: 51066P9</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Get an insider's view of how olives are pressed and what makes olive oil "Extra Virgin" This tour is a short drive outside of Austin Texas. Topics include History of the Orchard, How olives were milled and pressed, Extra Virgin 101.</t>
+          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country Olive Mill Tour &amp; Extra Virgin 101</t>
+          <t>Title: Brew and Que Tour in Austin</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 199613P6</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings (cost included!) at two Austin urban-wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: Austin Private Half-Day Wine Tour with Hotel Pickup</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 327690P1</t>
+          <t>PRODUCTCODE: 90519P10</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: The Half Day Hill Country in Limousine wine tour is approximately 4-6 hours from pick up to drop off. You will tour 3 great Driftwood/Dripping Springs wineries where you will enjoy the absolute best wines.</t>
+          <t>Summarized description: Austin is home to a variety of world class breweries, distilleries and wineries. Tour prices include a tasting at three locations. You are welcome to buy additional drinks and BYOB.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Half Day Wine Tour with Luxury Limousine in Austin</t>
+          <t>Title: Austin Tasting Tour - Breweries, Distilleries and Wineries</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P11</t>
+          <t>PRODUCTCODE: 327690P1</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: The 290 Wine Shuttle costs $39.99 and stops at each of the locations on the route approximately every 10 minutes. You can't book a private bus to get this experience! Book your Austin to Fredericksburg Roundtrip Shuttle ticket today!!</t>
+          <t>Summarized description: The Half Day Hill Country in Limousine wine tour is approximately 4-6 hours from pick up to drop off. You will tour 3 great Driftwood/Dripping Springs wineries where you will enjoy the absolute best wines.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Austin to Fredericksburg Round Trip Transportation</t>
+          <t>Title: Half Day Wine Tour with Luxury Limousine in Austin</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 288955P2</t>
+          <t>PRODUCTCODE: 25218P2</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
+          <t>Summarized description: Enjoy the personalized attention of your host on your private Austin brewery tour for 2. Enjoy the space and comfort of our black SUV while we visit 3 different breweries for tastings. Learn about Austin and it's brewery culture.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Beer &amp; Wine Trail Friday (4pm-8pm)</t>
+          <t>Title: Private Austin Brewery Tour for 2</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 348643P1</t>
+          <t>PRODUCTCODE: 288955P2</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: We are the company to get you out of Austin for the day! We take you on breathtaking views of the amazing Texas Hill Country. You will be guided by one of our very experienced hosts who will pick you up in the downtown Austin area.</t>
+          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Escape the day from Austin to Fredericksburg, Luchenbach</t>
+          <t>Title: Beer &amp; Wine Trail Friday (4pm-8pm)</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 288955P8</t>
+          <t>PRODUCTCODE: 348643P1</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description:  Shuttle bus takes group on Central Texas Wine Trail. Stops include Dancing Bee Winery, Axis Winery and 3 Texans Winery. Plan for a 1-hour stop at each location as venue staff hosts you.</t>
+          <t>Summarized description: We are the company to get you out of Austin for the day! We take you on breathtaking views of the amazing Texas Hill Country. You will be guided by one of our very experienced hosts who will pick you up in the downtown Austin area.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Wine Trail Tour Sunday (2pm-6pm)</t>
+          <t>Title: Escape the day from Austin to Fredericksburg, Luchenbach</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 288955P3</t>
+          <t>PRODUCTCODE: 288955P8</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
+          <t>Summarized description:  Shuttle bus takes group on Central Texas Wine Trail. Stops include Dancing Bee Winery, Axis Winery and 3 Texans Winery. Plan for a 1-hour stop at each location as venue staff hosts you.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Wine &amp; Beer Trail Saturday (3pm-7pm)</t>
+          <t>Title: Wine Trail Tour Sunday (2pm-6pm)</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P16</t>
+          <t>PRODUCTCODE: 288955P3</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
+          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: 290 Wine Shuttle Austin Connection</t>
+          <t>Title: Wine &amp; Beer Trail Saturday (3pm-7pm)</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 251722P1</t>
+          <t>PRODUCTCODE: 90519P16</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of Texas' most popular wineries and learn about the wine making process. Taste the flavors of Texas at the Austin's most famous BBQ joint. Enjoy at least 45 minutes at each stop.</t>
+          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title:  Salt Lick BBQ and Winery Shuttle Tour</t>
+          <t>Title: 290 Wine Shuttle Austin Connection</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P5</t>
+          <t>PRODUCTCODE: 251722P1</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries and a stop at iconic Salt Lick BBQ and Cellars. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: Explore some of Texas' most popular wineries and learn about the wine making process. Taste the flavors of Texas at the Austin's most famous BBQ joint. Enjoy at least 45 minutes at each stop.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Private Driftwood Wine and BBQ Tour from Austin</t>
+          <t>Title:  Salt Lick BBQ and Winery Shuttle Tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P15</t>
+          <t>PRODUCTCODE: 199613P5</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries and a stop at iconic Salt Lick BBQ and Cellars. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: 290 Wine Shuttle Austin Connection</t>
+          <t>Title: Private Driftwood Wine and BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320728P2775</t>
+          <t>PRODUCTCODE: 90519P15</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Expert sommeliers and winemakers will guide you through tastings of exceptional wines, sharing their deep knowledge and passion for winemaking. Don't miss the opportunity to create lasting memories on this Half-Day Private Texas Hill Country Wine Tour.</t>
+          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Texas Hill Country Wine Tour from Austin</t>
+          <t>Title: 290 Wine Shuttle Austin Connection</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 454873P1</t>
+          <t>PRODUCTCODE: 320728P2775</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: The Brewery 5K Running Series includes a free beer and swag. The Bullock Texas State History Museum offers a self guided tour of the city's history. Terry Black's BBQ is one of Austin's most famous BBQ joints.</t>
+          <t>Summarized description: Expert sommeliers and winemakers will guide you through tastings of exceptional wines, sharing their deep knowledge and passion for winemaking. Don't miss the opportunity to create lasting memories on this Half-Day Private Texas Hill Country Wine Tour.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Brewery 5K Fun Run, BBQ, and Texas History Museum in Austin </t>
+          <t>Title: Half-Day Private Texas Hill Country Wine Tour from Austin</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87887P7</t>
+          <t>PRODUCTCODE: 454873P1</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy traveling to local Austinite favorites in a private limousine. Visit distilleries that show you how the process works behind the scenes. Get a sampling of those you think are your favorites.</t>
+          <t>Summarized description: The Brewery 5K Running Series includes a free beer and swag. The Bullock Texas State History Museum offers a self guided tour of the city's history. Terry Black's BBQ is one of Austin's most famous BBQ joints.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Customizable Austin Distillery and Brewery Tour</t>
+          <t xml:space="preserve">Title: Brewery 5K Fun Run, BBQ, and Texas History Museum in Austin </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 263756P1</t>
+          <t>PRODUCTCODE: 87887P7</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Professional guide who knows Austin and it's beer. Behind the scenes facility tour at one brewery. Hang with locals, eat at an Austin food truck. Visit 3 different breweries in one day.</t>
+          <t>Summarized description: Enjoy traveling to local Austinite favorites in a private limousine. Visit distilleries that show you how the process works behind the scenes. Get a sampling of those you think are your favorites.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Half-Day Brewery and Craft Beer Tour in Austin with Tastings</t>
+          <t>Title: Customizable Austin Distillery and Brewery Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P25</t>
+          <t>PRODUCTCODE: 263756P1</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
+          <t>Summarized description: Professional guide who knows Austin and it's beer. Behind the scenes facility tour at one brewery. Hang with locals, eat at an Austin food truck. Visit 3 different breweries in one day.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Austin's Highlights</t>
+          <t>Title: Half-Day Brewery and Craft Beer Tour in Austin with Tastings</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>

--- a/experiment_results/10428P6.xlsx
+++ b/experiment_results/10428P6.xlsx
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Wildlife Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Hiking', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Water Sports']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Water Sports']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 87115P52</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 201132P1</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy throwback tunes while sipping on award winning Texas wines. Our motto Peace, Love, and Wine is definitely felt during your 5 hour tour through the beautiful hills of the Texas hill country.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Retro Wine Tour in A Vintage VW Bus</t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>

--- a/experiment_results/10428P6.xlsx
+++ b/experiment_results/10428P6.xlsx
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Wildlife Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Spa and Wellness']</t>
+          <t>Category: ['Spa and Wellness', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Hiking']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Festivals', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87887P1</t>
+          <t>PRODUCTCODE: 441526P2</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Lux Drift wine tour is approximately 4-6 hrs from pick up to drop off. Wine Tasting fees/bottle are NOT included in the tour price. Due to COVID19 we may change the schedule or itinerary based on state and local CDC guidance.</t>
+          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country Group Wine Tour by Limousine</t>
+          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P8</t>
+          <t>PRODUCTCODE: 87887P1</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: Lux Drift wine tour is approximately 4-6 hrs from pick up to drop off. Wine Tasting fees/bottle are NOT included in the tour price. Due to COVID19 we may change the schedule or itinerary based on state and local CDC guidance.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
+          <t>Title: Texas Hill Country Group Wine Tour by Limousine</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P1</t>
+          <t>PRODUCTCODE: 199613P8</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
+          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P9</t>
+          <t>PRODUCTCODE: 199613P1</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
+          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Brew and Que Tour in Austin</t>
+          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P4</t>
+          <t>PRODUCTCODE: 51066P9</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries. Stop at iconic Salt Lick BBQ and Cellars, plus time for shopping, dining and/or drinks in two charming hill country towns. This semi-private tour has a max capacity of 13, giving you a uniquely intimate experience.</t>
+          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Hill Country Wine Tour of Dripping Springs and Wimberley </t>
+          <t>Title: Brew and Que Tour in Austin</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P6</t>
+          <t>PRODUCTCODE: 199613P4</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings (cost included!) at two Austin urban-wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries. Stop at iconic Salt Lick BBQ and Cellars, plus time for shopping, dining and/or drinks in two charming hill country towns. This semi-private tour has a max capacity of 13, giving you a uniquely intimate experience.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Austin Private Half-Day Wine Tour with Hotel Pickup</t>
+          <t xml:space="preserve">Title: Hill Country Wine Tour of Dripping Springs and Wimberley </t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 199613P6</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings (cost included!) at two Austin urban-wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: Austin Private Half-Day Wine Tour with Hotel Pickup</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 87115P52</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P3</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P10</t>
+          <t>PRODUCTCODE: 199613P3</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to a variety of world class breweries, distilleries and wineries. Tour prices include a tasting at three locations. You are welcome to buy additional drinks and BYOB.</t>
+          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Austin Tasting Tour - Breweries, Distilleries and Wineries</t>
+          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>

--- a/experiment_results/10428P6.xlsx
+++ b/experiment_results/10428P6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1112"/>
+  <dimension ref="A1:I1107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Wildlife Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'City Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Festivals', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 441526P2</t>
+          <t>PRODUCTCODE: 87887P1</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
+          <t>Summarized description: Lux Drift wine tour is approximately 4-6 hrs from pick up to drop off. Wine Tasting fees/bottle are NOT included in the tour price. Due to COVID19 we may change the schedule or itinerary based on state and local CDC guidance.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
+          <t>Title: Texas Hill Country Group Wine Tour by Limousine</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87887P1</t>
+          <t>PRODUCTCODE: 199613P8</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Lux Drift wine tour is approximately 4-6 hrs from pick up to drop off. Wine Tasting fees/bottle are NOT included in the tour price. Due to COVID19 we may change the schedule or itinerary based on state and local CDC guidance.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country Group Wine Tour by Limousine</t>
+          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P8</t>
+          <t>PRODUCTCODE: 199613P1</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
+          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P1</t>
+          <t>PRODUCTCODE: 51066P9</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
+          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
+          <t>Title: Brew and Que Tour in Austin</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P9</t>
+          <t>PRODUCTCODE: 199613P4</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries. Stop at iconic Salt Lick BBQ and Cellars, plus time for shopping, dining and/or drinks in two charming hill country towns. This semi-private tour has a max capacity of 13, giving you a uniquely intimate experience.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Brew and Que Tour in Austin</t>
+          <t xml:space="preserve">Title: Hill Country Wine Tour of Dripping Springs and Wimberley </t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P4</t>
+          <t>PRODUCTCODE: 199613P6</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries. Stop at iconic Salt Lick BBQ and Cellars, plus time for shopping, dining and/or drinks in two charming hill country towns. This semi-private tour has a max capacity of 13, giving you a uniquely intimate experience.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings (cost included!) at two Austin urban-wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Hill Country Wine Tour of Dripping Springs and Wimberley </t>
+          <t>Title: Austin Private Half-Day Wine Tour with Hotel Pickup</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P6</t>
+          <t>PRODUCTCODE: 19328P2</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings (cost included!) at two Austin urban-wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Austin Private Half-Day Wine Tour with Hotel Pickup</t>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 201132P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: Enjoy throwback tunes while sipping on award winning Texas wines. Our motto Peace, Love, and Wine is definitely felt during your 5 hour tour through the beautiful hills of the Texas hill country.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: Retro Wine Tour in A Vintage VW Bus</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P2</t>
+          <t>PRODUCTCODE: 199613P3</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P3</t>
+          <t>PRODUCTCODE: 327690P1</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
+          <t>Summarized description: The Half Day Hill Country in Limousine wine tour is approximately 4-6 hours from pick up to drop off. You will tour 3 great Driftwood/Dripping Springs wineries where you will enjoy the absolute best wines.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
+          <t>Title: Half Day Wine Tour with Luxury Limousine in Austin</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 327690P1</t>
+          <t>PRODUCTCODE: 324527P1</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: The Half Day Hill Country in Limousine wine tour is approximately 4-6 hours from pick up to drop off. You will tour 3 great Driftwood/Dripping Springs wineries where you will enjoy the absolute best wines.</t>
+          <t>Summarized description: Enjoy a personalized Tour of Austin and surrounding Hill Country with up to 14 guests. We have some great spots we know you'll love or we can plan a unique trip just for you. Great for a bachelor/ettes party’s or can be a site seeing family trip!</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Half Day Wine Tour with Luxury Limousine in Austin</t>
+          <t>Title: Personalized Tour of Austin and Surrounding Hill Country</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324527P1</t>
+          <t>PRODUCTCODE: 25218P2</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a personalized Tour of Austin and surrounding Hill Country with up to 14 guests. We have some great spots we know you'll love or we can plan a unique trip just for you. Great for a bachelor/ettes party’s or can be a site seeing family trip!</t>
+          <t>Summarized description: Enjoy the personalized attention of your host on your private Austin brewery tour for 2. Enjoy the space and comfort of our black SUV while we visit 3 different breweries for tastings. Learn about Austin and it's brewery culture.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Personalized Tour of Austin and Surrounding Hill Country</t>
+          <t>Title: Private Austin Brewery Tour for 2</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25218P2</t>
+          <t>PRODUCTCODE: 288955P2</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy the personalized attention of your host on your private Austin brewery tour for 2. Enjoy the space and comfort of our black SUV while we visit 3 different breweries for tastings. Learn about Austin and it's brewery culture.</t>
+          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Private Austin Brewery Tour for 2</t>
+          <t>Title: Beer &amp; Wine Trail Friday (4pm-8pm)</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 288955P2</t>
+          <t>PRODUCTCODE: 348643P1</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
+          <t>Summarized description: We are the company to get you out of Austin for the day! We take you on breathtaking views of the amazing Texas Hill Country. You will be guided by one of our very experienced hosts who will pick you up in the downtown Austin area.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Beer &amp; Wine Trail Friday (4pm-8pm)</t>
+          <t>Title: Escape the day from Austin to Fredericksburg, Luchenbach</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 348643P1</t>
+          <t>PRODUCTCODE: 288955P8</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: We are the company to get you out of Austin for the day! We take you on breathtaking views of the amazing Texas Hill Country. You will be guided by one of our very experienced hosts who will pick you up in the downtown Austin area.</t>
+          <t>Summarized description:  Shuttle bus takes group on Central Texas Wine Trail. Stops include Dancing Bee Winery, Axis Winery and 3 Texans Winery. Plan for a 1-hour stop at each location as venue staff hosts you.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Escape the day from Austin to Fredericksburg, Luchenbach</t>
+          <t>Title: Wine Trail Tour Sunday (2pm-6pm)</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 288955P8</t>
+          <t>PRODUCTCODE: 288955P3</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description:  Shuttle bus takes group on Central Texas Wine Trail. Stops include Dancing Bee Winery, Axis Winery and 3 Texans Winery. Plan for a 1-hour stop at each location as venue staff hosts you.</t>
+          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Wine Trail Tour Sunday (2pm-6pm)</t>
+          <t>Title: Wine &amp; Beer Trail Saturday (3pm-7pm)</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 288955P3</t>
+          <t>PRODUCTCODE: 90519P16</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
+          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Wine &amp; Beer Trail Saturday (3pm-7pm)</t>
+          <t>Title: 290 Wine Shuttle Austin Connection</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P16</t>
+          <t>PRODUCTCODE: 251722P1</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
+          <t>Summarized description: Explore some of Texas' most popular wineries and learn about the wine making process. Taste the flavors of Texas at the Austin's most famous BBQ joint. Enjoy at least 45 minutes at each stop.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: 290 Wine Shuttle Austin Connection</t>
+          <t>Title:  Salt Lick BBQ and Winery Shuttle Tour</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 251722P1</t>
+          <t>PRODUCTCODE: 199613P5</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Explore some of Texas' most popular wineries and learn about the wine making process. Taste the flavors of Texas at the Austin's most famous BBQ joint. Enjoy at least 45 minutes at each stop.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries and a stop at iconic Salt Lick BBQ and Cellars. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title:  Salt Lick BBQ and Winery Shuttle Tour</t>
+          <t>Title: Private Driftwood Wine and BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P5</t>
+          <t>PRODUCTCODE: 90519P15</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries and a stop at iconic Salt Lick BBQ and Cellars. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Private Driftwood Wine and BBQ Tour from Austin</t>
+          <t>Title: 290 Wine Shuttle Austin Connection</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P15</t>
+          <t>PRODUCTCODE: 320728P2775</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
+          <t>Summarized description: Expert sommeliers and winemakers will guide you through tastings of exceptional wines, sharing their deep knowledge and passion for winemaking. Don't miss the opportunity to create lasting memories on this Half-Day Private Texas Hill Country Wine Tour.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: 290 Wine Shuttle Austin Connection</t>
+          <t>Title: Half-Day Private Texas Hill Country Wine Tour from Austin</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320728P2775</t>
+          <t>PRODUCTCODE: 454873P1</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Expert sommeliers and winemakers will guide you through tastings of exceptional wines, sharing their deep knowledge and passion for winemaking. Don't miss the opportunity to create lasting memories on this Half-Day Private Texas Hill Country Wine Tour.</t>
+          <t>Summarized description: The Brewery 5K Running Series includes a free beer and swag. The Bullock Texas State History Museum offers a self guided tour of the city's history. Terry Black's BBQ is one of Austin's most famous BBQ joints.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Texas Hill Country Wine Tour from Austin</t>
+          <t xml:space="preserve">Title: Brewery 5K Fun Run, BBQ, and Texas History Museum in Austin </t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 454873P1</t>
+          <t>PRODUCTCODE: 87887P7</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: The Brewery 5K Running Series includes a free beer and swag. The Bullock Texas State History Museum offers a self guided tour of the city's history. Terry Black's BBQ is one of Austin's most famous BBQ joints.</t>
+          <t>Summarized description: Enjoy traveling to local Austinite favorites in a private limousine. Visit distilleries that show you how the process works behind the scenes. Get a sampling of those you think are your favorites.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Brewery 5K Fun Run, BBQ, and Texas History Museum in Austin </t>
+          <t>Title: Customizable Austin Distillery and Brewery Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87887P7</t>
+          <t>PRODUCTCODE: 263756P1</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy traveling to local Austinite favorites in a private limousine. Visit distilleries that show you how the process works behind the scenes. Get a sampling of those you think are your favorites.</t>
+          <t>Summarized description: Professional guide who knows Austin and it's beer. Behind the scenes facility tour at one brewery. Hang with locals, eat at an Austin food truck. Visit 3 different breweries in one day.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Customizable Austin Distillery and Brewery Tour</t>
+          <t>Title: Half-Day Brewery and Craft Beer Tour in Austin with Tastings</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 263756P1</t>
+          <t>PRODUCTCODE: 260194P1</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Professional guide who knows Austin and it's beer. Behind the scenes facility tour at one brewery. Hang with locals, eat at an Austin food truck. Visit 3 different breweries in one day.</t>
+          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Half-Day Brewery and Craft Beer Tour in Austin with Tastings</t>
+          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 260194P1</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17104,81 +17104,6 @@
       <c r="H1107" t="inlineStr"/>
       <c r="I1107" t="inlineStr"/>
     </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
-        </is>
-      </c>
-      <c r="B1108" t="inlineStr"/>
-      <c r="C1108" t="inlineStr"/>
-      <c r="D1108" t="inlineStr"/>
-      <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr"/>
-      <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr"/>
-      <c r="I1108" t="inlineStr"/>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
-        </is>
-      </c>
-      <c r="B1109" t="inlineStr"/>
-      <c r="C1109" t="inlineStr"/>
-      <c r="D1109" t="inlineStr"/>
-      <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr"/>
-      <c r="I1109" t="inlineStr"/>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1110" t="inlineStr"/>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr"/>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr"/>
-      <c r="I1110" t="inlineStr"/>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr"/>
-      <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr"/>
-      <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr"/>
-      <c r="I1111" t="inlineStr"/>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr"/>
-      <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr"/>
-      <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr"/>
-      <c r="I1112" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/10428P6.xlsx
+++ b/experiment_results/10428P6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1009"/>
+  <dimension ref="A1:I1129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -3351,7 +3351,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -4626,7 +4626,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -5601,7 +5601,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -6201,7 +6201,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -6501,7 +6501,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -6651,7 +6651,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -7101,7 +7101,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -7326,7 +7326,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -7776,7 +7776,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -7851,7 +7851,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -7926,7 +7926,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -9351,7 +9351,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -9726,7 +9726,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -10776,7 +10776,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B686" t="inlineStr"/>
@@ -10851,7 +10851,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B691" t="inlineStr"/>
@@ -11226,7 +11226,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B716" t="inlineStr"/>
@@ -11526,7 +11526,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B736" t="inlineStr"/>
@@ -11976,7 +11976,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -12126,7 +12126,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -12351,7 +12351,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -12576,7 +12576,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Entertainment', 'Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12801,7 +12801,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -13476,7 +13476,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
+          <t>Category: ['City Tours', 'Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13701,7 +13701,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13851,7 +13851,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -14076,7 +14076,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14151,7 +14151,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Festivals', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14526,7 +14526,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14601,7 +14601,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14676,7 +14676,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Entertainment']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14901,7 +14901,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17570P6</t>
+          <t>PRODUCTCODE: 25218P1</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Texas cowboys and the great cattle drives of the 1800s. Step back in time at the Lyndon B. Johnson State Park &amp; Historic Site. Pass by award-winning wineries &amp; orchards, before visiting Fredericksburg, a historic &amp; picturesque German town.</t>
+          <t>Summarized description: This 4-hour brewery tour in Austin allows you to have the freedom to enjoy three local breweries. This is a great activity for bachelor and bachelorette parties, birthday parties.</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Title: Texas Hill Country and LBJ Tour From Austin</t>
+          <t>Title: Brewery Tour: Experience Austin in a Half Day</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>TotalReviews: 41</t>
+          <t>TotalReviews: 113</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199613P3</t>
+          <t>PRODUCTCODE: 17570P6</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
+          <t>Summarized description: Learn about Texas cowboys and the great cattle drives of the 1800s. Step back in time at the Lyndon B. Johnson State Park &amp; Historic Site. Pass by award-winning wineries &amp; orchards, before visiting Fredericksburg, a historic &amp; picturesque German town.</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
+          <t>Title: Texas Hill Country and LBJ Tour From Austin</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 41</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P5</t>
+          <t>PRODUCTCODE: 441526P2</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Summarized description: This three-hour tour will stop at a few iconic hangouts for a great sampling of the many genres of music we can hear in Austin every day of the week. Experience the Live Music Capital of the World like a local.</t>
+          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Title: Austin E-Bike Music and Club Crawl</t>
+          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 57338P5</t>
+          <t>PRODUCTCODE: 87887P1</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Summarized description: Electric minibikes will take you on a journey into Austin's craft beer scene. You will get to sample a curated menu of craft brews and learn a tasting technique.</t>
+          <t>Summarized description: Lux Drift wine tour is approximately 4-6 hrs from pick up to drop off. Wine Tasting fees/bottle are NOT included in the tour price. Due to COVID19 we may change the schedule or itinerary based on state and local CDC guidance.</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Title: The Austin Craft Brewery Adventure</t>
+          <t>Title: Texas Hill Country Group Wine Tour by Limousine</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P13</t>
+          <t>PRODUCTCODE: 199613P8</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to a variety of world class breweries. Tour prices include a tasting at two or three locations. You are welcome to buy additional drinks and BYOB. Please drink responsibly.</t>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings or bottles to share (cost included!) at two top Texas Hill Country wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Title: Austin Hill Country Brewery Tour</t>
+          <t>Title: Private Texas Hill Country Half-Day Wine Tour from Austin</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87887P7</t>
+          <t>PRODUCTCODE: 199613P1</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy traveling to local Austinite favorites in a private limousine. Visit distilleries that show you how the process works behind the scenes. Get a sampling of those you think are your favorites.</t>
+          <t>Summarized description: The Texas Hill Country Winery, Brewery &amp; Salt Lick BBQ Charter is the perfect option for solo travelers, couples, families, and small groups. Our driver-guides are experts in the area and locations we visit, assuring you the best possible experience. This charter is a great way to meet other locals and those also traveling to Austin.</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Title: Customizable Austin Distillery and Brewery Tour</t>
+          <t>Title: Best of Texas Hill Country Wine, Beer &amp; BBQ Tour from Austin</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 263756P1</t>
+          <t>PRODUCTCODE: 51066P9</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Summarized description: Professional guide who knows Austin and it's beer. Behind the scenes facility tour at one brewery. Hang with locals, eat at an Austin food truck. Visit 3 different breweries in one day.</t>
+          <t>Summarized description: 3-hour barbecue and beer tour. Stop at one of Austin's many bars and restaurants. Take an open-air electric shuttle from your hotel or visitor's center.</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Title: Half-Day Brewery and Craft Beer Tour in Austin with Tastings</t>
+          <t>Title: Brew and Que Tour in Austin</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 199613P4</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15634,6 +15634,1806 @@
       <c r="H1009" t="inlineStr"/>
       <c r="I1009" t="inlineStr"/>
     </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries. Stop at iconic Salt Lick BBQ and Cellars, plus time for shopping, dining and/or drinks in two charming hill country towns. This semi-private tour has a max capacity of 13, giving you a uniquely intimate experience.</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr"/>
+      <c r="C1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr"/>
+      <c r="E1010" t="inlineStr"/>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr"/>
+      <c r="H1010" t="inlineStr"/>
+      <c r="I1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Hill Country Wine Tour of Dripping Springs and Wimberley </t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr"/>
+      <c r="C1011" t="inlineStr"/>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="inlineStr"/>
+      <c r="H1011" t="inlineStr"/>
+      <c r="I1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>TotalReviews: 8</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr"/>
+      <c r="C1012" t="inlineStr"/>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="inlineStr"/>
+      <c r="H1012" t="inlineStr"/>
+      <c r="I1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr"/>
+      <c r="C1013" t="inlineStr"/>
+      <c r="D1013" t="inlineStr"/>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="inlineStr"/>
+      <c r="H1013" t="inlineStr"/>
+      <c r="I1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199613P6</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr"/>
+      <c r="C1014" t="inlineStr"/>
+      <c r="D1014" t="inlineStr"/>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="inlineStr"/>
+      <c r="H1014" t="inlineStr"/>
+      <c r="I1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings (cost included!) at two Austin urban-wineries. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr"/>
+      <c r="C1015" t="inlineStr"/>
+      <c r="D1015" t="inlineStr"/>
+      <c r="E1015" t="inlineStr"/>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr"/>
+      <c r="H1015" t="inlineStr"/>
+      <c r="I1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>Title: Austin Private Half-Day Wine Tour with Hotel Pickup</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr"/>
+      <c r="C1016" t="inlineStr"/>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="inlineStr"/>
+      <c r="H1016" t="inlineStr"/>
+      <c r="I1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>TotalReviews: 8</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr"/>
+      <c r="C1017" t="inlineStr"/>
+      <c r="D1017" t="inlineStr"/>
+      <c r="E1017" t="inlineStr"/>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="inlineStr"/>
+      <c r="H1017" t="inlineStr"/>
+      <c r="I1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr"/>
+      <c r="C1018" t="inlineStr"/>
+      <c r="D1018" t="inlineStr"/>
+      <c r="E1018" t="inlineStr"/>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="inlineStr"/>
+      <c r="H1018" t="inlineStr"/>
+      <c r="I1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 87115P52</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr"/>
+      <c r="C1019" t="inlineStr"/>
+      <c r="D1019" t="inlineStr"/>
+      <c r="E1019" t="inlineStr"/>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="inlineStr"/>
+      <c r="H1019" t="inlineStr"/>
+      <c r="I1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr"/>
+      <c r="C1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr"/>
+      <c r="E1020" t="inlineStr"/>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="inlineStr"/>
+      <c r="H1020" t="inlineStr"/>
+      <c r="I1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr"/>
+      <c r="C1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr"/>
+      <c r="E1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="inlineStr"/>
+      <c r="H1021" t="inlineStr"/>
+      <c r="I1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>TotalReviews: 5</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr"/>
+      <c r="C1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr"/>
+      <c r="E1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="inlineStr"/>
+      <c r="H1022" t="inlineStr"/>
+      <c r="I1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr"/>
+      <c r="C1023" t="inlineStr"/>
+      <c r="D1023" t="inlineStr"/>
+      <c r="E1023" t="inlineStr"/>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="inlineStr"/>
+      <c r="H1023" t="inlineStr"/>
+      <c r="I1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 19328P2</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr"/>
+      <c r="C1024" t="inlineStr"/>
+      <c r="D1024" t="inlineStr"/>
+      <c r="E1024" t="inlineStr"/>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="inlineStr"/>
+      <c r="H1024" t="inlineStr"/>
+      <c r="I1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas has been named one of the best places for barbecue in the world. Lockhart is said to be the Barbecue Capital of the World. There are thousands of BBQ joints across the state.</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
+      <c r="C1025" t="inlineStr"/>
+      <c r="D1025" t="inlineStr"/>
+      <c r="E1025" t="inlineStr"/>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="inlineStr"/>
+      <c r="H1025" t="inlineStr"/>
+      <c r="I1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Title: Austin Food Tour: Texas BBQ Trail</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr"/>
+      <c r="C1026" t="inlineStr"/>
+      <c r="D1026" t="inlineStr"/>
+      <c r="E1026" t="inlineStr"/>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="inlineStr"/>
+      <c r="H1026" t="inlineStr"/>
+      <c r="I1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>TotalReviews: 4</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr"/>
+      <c r="C1027" t="inlineStr"/>
+      <c r="D1027" t="inlineStr"/>
+      <c r="E1027" t="inlineStr"/>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="inlineStr"/>
+      <c r="H1027" t="inlineStr"/>
+      <c r="I1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr"/>
+      <c r="C1028" t="inlineStr"/>
+      <c r="D1028" t="inlineStr"/>
+      <c r="E1028" t="inlineStr"/>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="inlineStr"/>
+      <c r="H1028" t="inlineStr"/>
+      <c r="I1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 201132P1</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr"/>
+      <c r="C1029" t="inlineStr"/>
+      <c r="D1029" t="inlineStr"/>
+      <c r="E1029" t="inlineStr"/>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="inlineStr"/>
+      <c r="H1029" t="inlineStr"/>
+      <c r="I1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>Summarized description: Enjoy throwback tunes while sipping on award winning Texas wines. Our motto Peace, Love, and Wine is definitely felt during your 5 hour tour through the beautiful hills of the Texas hill country.</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr"/>
+      <c r="C1030" t="inlineStr"/>
+      <c r="D1030" t="inlineStr"/>
+      <c r="E1030" t="inlineStr"/>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="inlineStr"/>
+      <c r="H1030" t="inlineStr"/>
+      <c r="I1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>Title: Retro Wine Tour in A Vintage VW Bus</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr"/>
+      <c r="C1031" t="inlineStr"/>
+      <c r="D1031" t="inlineStr"/>
+      <c r="E1031" t="inlineStr"/>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="inlineStr"/>
+      <c r="H1031" t="inlineStr"/>
+      <c r="I1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>TotalReviews: 4</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr"/>
+      <c r="C1032" t="inlineStr"/>
+      <c r="D1032" t="inlineStr"/>
+      <c r="E1032" t="inlineStr"/>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="inlineStr"/>
+      <c r="H1032" t="inlineStr"/>
+      <c r="I1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr"/>
+      <c r="C1033" t="inlineStr"/>
+      <c r="D1033" t="inlineStr"/>
+      <c r="E1033" t="inlineStr"/>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="inlineStr"/>
+      <c r="H1033" t="inlineStr"/>
+      <c r="I1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199613P3</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr"/>
+      <c r="C1034" t="inlineStr"/>
+      <c r="D1034" t="inlineStr"/>
+      <c r="E1034" t="inlineStr"/>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="inlineStr"/>
+      <c r="H1034" t="inlineStr"/>
+      <c r="I1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas Tipsy Tours offers a semi-private tour for mixed, small groups with pick-ups at your hotel in Downtown Austin. Visit three customer-favorite Driftwood wineries, as well as a stop at Salt Lick BBQ &amp; Cellars, an iconic Austin BBQ restaurant.</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr"/>
+      <c r="C1035" t="inlineStr"/>
+      <c r="D1035" t="inlineStr"/>
+      <c r="E1035" t="inlineStr"/>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="inlineStr"/>
+      <c r="H1035" t="inlineStr"/>
+      <c r="I1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Hill Country Wine Tour and Salt Lick BBQ Tour from Austin </t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr"/>
+      <c r="C1036" t="inlineStr"/>
+      <c r="D1036" t="inlineStr"/>
+      <c r="E1036" t="inlineStr"/>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="inlineStr"/>
+      <c r="H1036" t="inlineStr"/>
+      <c r="I1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>TotalReviews: 4</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr"/>
+      <c r="C1037" t="inlineStr"/>
+      <c r="D1037" t="inlineStr"/>
+      <c r="E1037" t="inlineStr"/>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="inlineStr"/>
+      <c r="H1037" t="inlineStr"/>
+      <c r="I1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr"/>
+      <c r="C1038" t="inlineStr"/>
+      <c r="D1038" t="inlineStr"/>
+      <c r="E1038" t="inlineStr"/>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="inlineStr"/>
+      <c r="H1038" t="inlineStr"/>
+      <c r="I1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90519P10</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr"/>
+      <c r="C1039" t="inlineStr"/>
+      <c r="D1039" t="inlineStr"/>
+      <c r="E1039" t="inlineStr"/>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="inlineStr"/>
+      <c r="H1039" t="inlineStr"/>
+      <c r="I1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>Summarized description: Austin is home to a variety of world class breweries, distilleries and wineries. Tour prices include a tasting at three locations. You are welcome to buy additional drinks and BYOB.</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr"/>
+      <c r="C1040" t="inlineStr"/>
+      <c r="D1040" t="inlineStr"/>
+      <c r="E1040" t="inlineStr"/>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="inlineStr"/>
+      <c r="H1040" t="inlineStr"/>
+      <c r="I1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>Title: Austin Tasting Tour - Breweries, Distilleries and Wineries</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr"/>
+      <c r="C1041" t="inlineStr"/>
+      <c r="D1041" t="inlineStr"/>
+      <c r="E1041" t="inlineStr"/>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="inlineStr"/>
+      <c r="H1041" t="inlineStr"/>
+      <c r="I1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>TotalReviews: 4</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr"/>
+      <c r="C1042" t="inlineStr"/>
+      <c r="D1042" t="inlineStr"/>
+      <c r="E1042" t="inlineStr"/>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="inlineStr"/>
+      <c r="H1042" t="inlineStr"/>
+      <c r="I1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr"/>
+      <c r="C1043" t="inlineStr"/>
+      <c r="D1043" t="inlineStr"/>
+      <c r="E1043" t="inlineStr"/>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="inlineStr"/>
+      <c r="H1043" t="inlineStr"/>
+      <c r="I1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 104585P1</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr"/>
+      <c r="C1044" t="inlineStr"/>
+      <c r="D1044" t="inlineStr"/>
+      <c r="E1044" t="inlineStr"/>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="inlineStr"/>
+      <c r="H1044" t="inlineStr"/>
+      <c r="I1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr"/>
+      <c r="C1045" t="inlineStr"/>
+      <c r="D1045" t="inlineStr"/>
+      <c r="E1045" t="inlineStr"/>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="inlineStr"/>
+      <c r="H1045" t="inlineStr"/>
+      <c r="I1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr"/>
+      <c r="C1046" t="inlineStr"/>
+      <c r="D1046" t="inlineStr"/>
+      <c r="E1046" t="inlineStr"/>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="inlineStr"/>
+      <c r="H1046" t="inlineStr"/>
+      <c r="I1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>TotalReviews: 3</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr"/>
+      <c r="C1047" t="inlineStr"/>
+      <c r="D1047" t="inlineStr"/>
+      <c r="E1047" t="inlineStr"/>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="inlineStr"/>
+      <c r="H1047" t="inlineStr"/>
+      <c r="I1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr"/>
+      <c r="C1048" t="inlineStr"/>
+      <c r="D1048" t="inlineStr"/>
+      <c r="E1048" t="inlineStr"/>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="inlineStr"/>
+      <c r="H1048" t="inlineStr"/>
+      <c r="I1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 327690P1</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr"/>
+      <c r="C1049" t="inlineStr"/>
+      <c r="D1049" t="inlineStr"/>
+      <c r="E1049" t="inlineStr"/>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="inlineStr"/>
+      <c r="H1049" t="inlineStr"/>
+      <c r="I1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>Summarized description: The Half Day Hill Country in Limousine wine tour is approximately 4-6 hours from pick up to drop off. You will tour 3 great Driftwood/Dripping Springs wineries where you will enjoy the absolute best wines.</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr"/>
+      <c r="C1050" t="inlineStr"/>
+      <c r="D1050" t="inlineStr"/>
+      <c r="E1050" t="inlineStr"/>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="inlineStr"/>
+      <c r="H1050" t="inlineStr"/>
+      <c r="I1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Title: Half Day Wine Tour with Luxury Limousine in Austin</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr"/>
+      <c r="C1051" t="inlineStr"/>
+      <c r="D1051" t="inlineStr"/>
+      <c r="E1051" t="inlineStr"/>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="inlineStr"/>
+      <c r="H1051" t="inlineStr"/>
+      <c r="I1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>TotalReviews: 3</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr"/>
+      <c r="C1052" t="inlineStr"/>
+      <c r="D1052" t="inlineStr"/>
+      <c r="E1052" t="inlineStr"/>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="inlineStr"/>
+      <c r="H1052" t="inlineStr"/>
+      <c r="I1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr"/>
+      <c r="C1053" t="inlineStr"/>
+      <c r="D1053" t="inlineStr"/>
+      <c r="E1053" t="inlineStr"/>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="inlineStr"/>
+      <c r="H1053" t="inlineStr"/>
+      <c r="I1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 13625P8</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr"/>
+      <c r="C1054" t="inlineStr"/>
+      <c r="D1054" t="inlineStr"/>
+      <c r="E1054" t="inlineStr"/>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="inlineStr"/>
+      <c r="H1054" t="inlineStr"/>
+      <c r="I1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>Summarized description: 11 miles on Lady Bird Lake hike-n-bike trail / downtown Austin bikeway. Includes cycling around Barton Springs, Pfluger bike bridge, SRV statue, Congress Ave. Bat bridge.</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr"/>
+      <c r="C1055" t="inlineStr"/>
+      <c r="D1055" t="inlineStr"/>
+      <c r="E1055" t="inlineStr"/>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="inlineStr"/>
+      <c r="H1055" t="inlineStr"/>
+      <c r="I1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Title: Bikes and BBQ Tour in Austin</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr"/>
+      <c r="C1056" t="inlineStr"/>
+      <c r="D1056" t="inlineStr"/>
+      <c r="E1056" t="inlineStr"/>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="inlineStr"/>
+      <c r="H1056" t="inlineStr"/>
+      <c r="I1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>TotalReviews: 3</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr"/>
+      <c r="C1057" t="inlineStr"/>
+      <c r="D1057" t="inlineStr"/>
+      <c r="E1057" t="inlineStr"/>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="inlineStr"/>
+      <c r="H1057" t="inlineStr"/>
+      <c r="I1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Hiking']</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr"/>
+      <c r="C1058" t="inlineStr"/>
+      <c r="D1058" t="inlineStr"/>
+      <c r="E1058" t="inlineStr"/>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="inlineStr"/>
+      <c r="H1058" t="inlineStr"/>
+      <c r="I1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 324527P1</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr"/>
+      <c r="C1059" t="inlineStr"/>
+      <c r="D1059" t="inlineStr"/>
+      <c r="E1059" t="inlineStr"/>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="inlineStr"/>
+      <c r="H1059" t="inlineStr"/>
+      <c r="I1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>Summarized description: Enjoy a personalized Tour of Austin and surrounding Hill Country with up to 14 guests. We have some great spots we know you'll love or we can plan a unique trip just for you. Great for a bachelor/ettes party’s or can be a site seeing family trip!</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr"/>
+      <c r="C1060" t="inlineStr"/>
+      <c r="D1060" t="inlineStr"/>
+      <c r="E1060" t="inlineStr"/>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="inlineStr"/>
+      <c r="H1060" t="inlineStr"/>
+      <c r="I1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>Title: Personalized Tour of Austin and Surrounding Hill Country</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr"/>
+      <c r="C1061" t="inlineStr"/>
+      <c r="D1061" t="inlineStr"/>
+      <c r="E1061" t="inlineStr"/>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="inlineStr"/>
+      <c r="H1061" t="inlineStr"/>
+      <c r="I1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>TotalReviews: 2</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr"/>
+      <c r="C1062" t="inlineStr"/>
+      <c r="D1062" t="inlineStr"/>
+      <c r="E1062" t="inlineStr"/>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="inlineStr"/>
+      <c r="H1062" t="inlineStr"/>
+      <c r="I1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr"/>
+      <c r="C1063" t="inlineStr"/>
+      <c r="D1063" t="inlineStr"/>
+      <c r="E1063" t="inlineStr"/>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="inlineStr"/>
+      <c r="H1063" t="inlineStr"/>
+      <c r="I1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 25218P2</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr"/>
+      <c r="C1064" t="inlineStr"/>
+      <c r="D1064" t="inlineStr"/>
+      <c r="E1064" t="inlineStr"/>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="inlineStr"/>
+      <c r="H1064" t="inlineStr"/>
+      <c r="I1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>Summarized description: Enjoy the personalized attention of your host on your private Austin brewery tour for 2. Enjoy the space and comfort of our black SUV while we visit 3 different breweries for tastings. Learn about Austin and it's brewery culture.</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr"/>
+      <c r="C1065" t="inlineStr"/>
+      <c r="D1065" t="inlineStr"/>
+      <c r="E1065" t="inlineStr"/>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="inlineStr"/>
+      <c r="H1065" t="inlineStr"/>
+      <c r="I1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>Title: Private Austin Brewery Tour for 2</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr"/>
+      <c r="C1066" t="inlineStr"/>
+      <c r="D1066" t="inlineStr"/>
+      <c r="E1066" t="inlineStr"/>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="inlineStr"/>
+      <c r="H1066" t="inlineStr"/>
+      <c r="I1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>TotalReviews: 2</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr"/>
+      <c r="C1067" t="inlineStr"/>
+      <c r="D1067" t="inlineStr"/>
+      <c r="E1067" t="inlineStr"/>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="inlineStr"/>
+      <c r="H1067" t="inlineStr"/>
+      <c r="I1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr"/>
+      <c r="C1068" t="inlineStr"/>
+      <c r="D1068" t="inlineStr"/>
+      <c r="E1068" t="inlineStr"/>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="inlineStr"/>
+      <c r="H1068" t="inlineStr"/>
+      <c r="I1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 380918P4</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr"/>
+      <c r="C1069" t="inlineStr"/>
+      <c r="D1069" t="inlineStr"/>
+      <c r="E1069" t="inlineStr"/>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="inlineStr"/>
+      <c r="H1069" t="inlineStr"/>
+      <c r="I1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr"/>
+      <c r="C1070" t="inlineStr"/>
+      <c r="D1070" t="inlineStr"/>
+      <c r="E1070" t="inlineStr"/>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="inlineStr"/>
+      <c r="H1070" t="inlineStr"/>
+      <c r="I1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Title: South Austin Food Tour</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr"/>
+      <c r="C1071" t="inlineStr"/>
+      <c r="D1071" t="inlineStr"/>
+      <c r="E1071" t="inlineStr"/>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="inlineStr"/>
+      <c r="H1071" t="inlineStr"/>
+      <c r="I1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>TotalReviews: 2</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr"/>
+      <c r="C1072" t="inlineStr"/>
+      <c r="D1072" t="inlineStr"/>
+      <c r="E1072" t="inlineStr"/>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="inlineStr"/>
+      <c r="H1072" t="inlineStr"/>
+      <c r="I1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr"/>
+      <c r="C1073" t="inlineStr"/>
+      <c r="D1073" t="inlineStr"/>
+      <c r="E1073" t="inlineStr"/>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="inlineStr"/>
+      <c r="H1073" t="inlineStr"/>
+      <c r="I1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 288955P2</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr"/>
+      <c r="C1074" t="inlineStr"/>
+      <c r="D1074" t="inlineStr"/>
+      <c r="E1074" t="inlineStr"/>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="inlineStr"/>
+      <c r="H1074" t="inlineStr"/>
+      <c r="I1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr"/>
+      <c r="C1075" t="inlineStr"/>
+      <c r="D1075" t="inlineStr"/>
+      <c r="E1075" t="inlineStr"/>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="inlineStr"/>
+      <c r="H1075" t="inlineStr"/>
+      <c r="I1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Title: Beer &amp; Wine Trail Friday (4pm-8pm)</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr"/>
+      <c r="C1076" t="inlineStr"/>
+      <c r="D1076" t="inlineStr"/>
+      <c r="E1076" t="inlineStr"/>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="inlineStr"/>
+      <c r="H1076" t="inlineStr"/>
+      <c r="I1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>TotalReviews: 2</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr"/>
+      <c r="C1077" t="inlineStr"/>
+      <c r="D1077" t="inlineStr"/>
+      <c r="E1077" t="inlineStr"/>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="inlineStr"/>
+      <c r="H1077" t="inlineStr"/>
+      <c r="I1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr"/>
+      <c r="C1078" t="inlineStr"/>
+      <c r="D1078" t="inlineStr"/>
+      <c r="E1078" t="inlineStr"/>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="inlineStr"/>
+      <c r="H1078" t="inlineStr"/>
+      <c r="I1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 348643P1</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr"/>
+      <c r="C1079" t="inlineStr"/>
+      <c r="D1079" t="inlineStr"/>
+      <c r="E1079" t="inlineStr"/>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="inlineStr"/>
+      <c r="H1079" t="inlineStr"/>
+      <c r="I1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>Summarized description: We are the company to get you out of Austin for the day! We take you on breathtaking views of the amazing Texas Hill Country. You will be guided by one of our very experienced hosts who will pick you up in the downtown Austin area.</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr"/>
+      <c r="C1080" t="inlineStr"/>
+      <c r="D1080" t="inlineStr"/>
+      <c r="E1080" t="inlineStr"/>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="inlineStr"/>
+      <c r="H1080" t="inlineStr"/>
+      <c r="I1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>Title: Escape the day from Austin to Fredericksburg, Luchenbach</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr"/>
+      <c r="C1081" t="inlineStr"/>
+      <c r="D1081" t="inlineStr"/>
+      <c r="E1081" t="inlineStr"/>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="inlineStr"/>
+      <c r="H1081" t="inlineStr"/>
+      <c r="I1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr"/>
+      <c r="C1082" t="inlineStr"/>
+      <c r="D1082" t="inlineStr"/>
+      <c r="E1082" t="inlineStr"/>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="inlineStr"/>
+      <c r="H1082" t="inlineStr"/>
+      <c r="I1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr"/>
+      <c r="C1083" t="inlineStr"/>
+      <c r="D1083" t="inlineStr"/>
+      <c r="E1083" t="inlineStr"/>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="inlineStr"/>
+      <c r="H1083" t="inlineStr"/>
+      <c r="I1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 57338P5</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr"/>
+      <c r="C1084" t="inlineStr"/>
+      <c r="D1084" t="inlineStr"/>
+      <c r="E1084" t="inlineStr"/>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="inlineStr"/>
+      <c r="H1084" t="inlineStr"/>
+      <c r="I1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>Summarized description: Electric minibikes will take you on a journey into Austin's craft beer scene. You will get to sample a curated menu of craft brews and learn a tasting technique.</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr"/>
+      <c r="C1085" t="inlineStr"/>
+      <c r="D1085" t="inlineStr"/>
+      <c r="E1085" t="inlineStr"/>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="inlineStr"/>
+      <c r="H1085" t="inlineStr"/>
+      <c r="I1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>Title: The Austin Craft Brewery Adventure</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr"/>
+      <c r="C1086" t="inlineStr"/>
+      <c r="D1086" t="inlineStr"/>
+      <c r="E1086" t="inlineStr"/>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="inlineStr"/>
+      <c r="H1086" t="inlineStr"/>
+      <c r="I1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr"/>
+      <c r="C1087" t="inlineStr"/>
+      <c r="D1087" t="inlineStr"/>
+      <c r="E1087" t="inlineStr"/>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="inlineStr"/>
+      <c r="H1087" t="inlineStr"/>
+      <c r="I1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr"/>
+      <c r="C1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr"/>
+      <c r="E1088" t="inlineStr"/>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="inlineStr"/>
+      <c r="H1088" t="inlineStr"/>
+      <c r="I1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 288955P8</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr"/>
+      <c r="C1089" t="inlineStr"/>
+      <c r="D1089" t="inlineStr"/>
+      <c r="E1089" t="inlineStr"/>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="inlineStr"/>
+      <c r="H1089" t="inlineStr"/>
+      <c r="I1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>Summarized description:  Shuttle bus takes group on Central Texas Wine Trail. Stops include Dancing Bee Winery, Axis Winery and 3 Texans Winery. Plan for a 1-hour stop at each location as venue staff hosts you.</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr"/>
+      <c r="C1090" t="inlineStr"/>
+      <c r="D1090" t="inlineStr"/>
+      <c r="E1090" t="inlineStr"/>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr"/>
+      <c r="H1090" t="inlineStr"/>
+      <c r="I1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>Title: Wine Trail Tour Sunday (2pm-6pm)</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr"/>
+      <c r="C1091" t="inlineStr"/>
+      <c r="D1091" t="inlineStr"/>
+      <c r="E1091" t="inlineStr"/>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="inlineStr"/>
+      <c r="H1091" t="inlineStr"/>
+      <c r="I1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr"/>
+      <c r="C1092" t="inlineStr"/>
+      <c r="D1092" t="inlineStr"/>
+      <c r="E1092" t="inlineStr"/>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr"/>
+      <c r="H1092" t="inlineStr"/>
+      <c r="I1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr"/>
+      <c r="C1093" t="inlineStr"/>
+      <c r="D1093" t="inlineStr"/>
+      <c r="E1093" t="inlineStr"/>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="inlineStr"/>
+      <c r="H1093" t="inlineStr"/>
+      <c r="I1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 288955P3</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr"/>
+      <c r="C1094" t="inlineStr"/>
+      <c r="D1094" t="inlineStr"/>
+      <c r="E1094" t="inlineStr"/>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="inlineStr"/>
+      <c r="H1094" t="inlineStr"/>
+      <c r="I1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>Summarized description:  Shuttle bus takes group on the Central Texas Beer &amp; Wine Trail. Stops include Dancing Bee Winery, Bold Republic Brewing Company and 3 Texans Winery. Plan for a 1-hour stop at each location.</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr"/>
+      <c r="C1095" t="inlineStr"/>
+      <c r="D1095" t="inlineStr"/>
+      <c r="E1095" t="inlineStr"/>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="inlineStr"/>
+      <c r="H1095" t="inlineStr"/>
+      <c r="I1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>Title: Wine &amp; Beer Trail Saturday (3pm-7pm)</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr"/>
+      <c r="C1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr"/>
+      <c r="E1096" t="inlineStr"/>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr"/>
+      <c r="H1096" t="inlineStr"/>
+      <c r="I1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr"/>
+      <c r="C1097" t="inlineStr"/>
+      <c r="D1097" t="inlineStr"/>
+      <c r="E1097" t="inlineStr"/>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="inlineStr"/>
+      <c r="H1097" t="inlineStr"/>
+      <c r="I1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr"/>
+      <c r="C1098" t="inlineStr"/>
+      <c r="D1098" t="inlineStr"/>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="inlineStr"/>
+      <c r="H1098" t="inlineStr"/>
+      <c r="I1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90519P16</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr"/>
+      <c r="C1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr"/>
+      <c r="E1099" t="inlineStr"/>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="inlineStr"/>
+      <c r="H1099" t="inlineStr"/>
+      <c r="I1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr"/>
+      <c r="C1100" t="inlineStr"/>
+      <c r="D1100" t="inlineStr"/>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="inlineStr"/>
+      <c r="H1100" t="inlineStr"/>
+      <c r="I1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>Title: 290 Wine Shuttle Austin Connection</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr"/>
+      <c r="C1101" t="inlineStr"/>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="inlineStr"/>
+      <c r="H1101" t="inlineStr"/>
+      <c r="I1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>TotalReviews: 1</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr"/>
+      <c r="C1102" t="inlineStr"/>
+      <c r="D1102" t="inlineStr"/>
+      <c r="E1102" t="inlineStr"/>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="inlineStr"/>
+      <c r="H1102" t="inlineStr"/>
+      <c r="I1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr"/>
+      <c r="C1103" t="inlineStr"/>
+      <c r="D1103" t="inlineStr"/>
+      <c r="E1103" t="inlineStr"/>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="inlineStr"/>
+      <c r="H1103" t="inlineStr"/>
+      <c r="I1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 251722P1</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr"/>
+      <c r="C1104" t="inlineStr"/>
+      <c r="D1104" t="inlineStr"/>
+      <c r="E1104" t="inlineStr"/>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="inlineStr"/>
+      <c r="H1104" t="inlineStr"/>
+      <c r="I1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore some of Texas' most popular wineries and learn about the wine making process. Taste the flavors of Texas at the Austin's most famous BBQ joint. Enjoy at least 45 minutes at each stop.</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr"/>
+      <c r="C1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr"/>
+      <c r="E1105" t="inlineStr"/>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr"/>
+      <c r="H1105" t="inlineStr"/>
+      <c r="I1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>Title:  Salt Lick BBQ and Winery Shuttle Tour</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr"/>
+      <c r="E1106" t="inlineStr"/>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr"/>
+      <c r="H1106" t="inlineStr"/>
+      <c r="I1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr"/>
+      <c r="C1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr"/>
+      <c r="E1107" t="inlineStr"/>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr"/>
+      <c r="H1107" t="inlineStr"/>
+      <c r="I1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr"/>
+      <c r="C1108" t="inlineStr"/>
+      <c r="D1108" t="inlineStr"/>
+      <c r="E1108" t="inlineStr"/>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="inlineStr"/>
+      <c r="H1108" t="inlineStr"/>
+      <c r="I1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199613P5</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr"/>
+      <c r="C1109" t="inlineStr"/>
+      <c r="D1109" t="inlineStr"/>
+      <c r="E1109" t="inlineStr"/>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="inlineStr"/>
+      <c r="H1109" t="inlineStr"/>
+      <c r="I1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>Summarized description: Texas Tipsy Tours’ experience includes wine tastings at top Texas Hill Country wineries and a stop at iconic Salt Lick BBQ and Cellars. We will pick up and drop off at your chosen location inside Austin city limits.</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr"/>
+      <c r="C1110" t="inlineStr"/>
+      <c r="D1110" t="inlineStr"/>
+      <c r="E1110" t="inlineStr"/>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="inlineStr"/>
+      <c r="H1110" t="inlineStr"/>
+      <c r="I1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>Title: Private Driftwood Wine and BBQ Tour from Austin</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
+      <c r="C1111" t="inlineStr"/>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="inlineStr"/>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr"/>
+      <c r="H1111" t="inlineStr"/>
+      <c r="I1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
+      <c r="C1112" t="inlineStr"/>
+      <c r="D1112" t="inlineStr"/>
+      <c r="E1112" t="inlineStr"/>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="inlineStr"/>
+      <c r="H1112" t="inlineStr"/>
+      <c r="I1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr"/>
+      <c r="C1113" t="inlineStr"/>
+      <c r="D1113" t="inlineStr"/>
+      <c r="E1113" t="inlineStr"/>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="inlineStr"/>
+      <c r="H1113" t="inlineStr"/>
+      <c r="I1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90519P15</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr"/>
+      <c r="C1114" t="inlineStr"/>
+      <c r="D1114" t="inlineStr"/>
+      <c r="E1114" t="inlineStr"/>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="inlineStr"/>
+      <c r="H1114" t="inlineStr"/>
+      <c r="I1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour Austin is partnering with the 290 Wine Shuttle so Austin residents can experience the best of Fredericksburg for a day without the need to drive. The shuttle stops at each of the locations on the route approximately every 10 minutes. Book your shuttle rides today!!</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr"/>
+      <c r="C1115" t="inlineStr"/>
+      <c r="D1115" t="inlineStr"/>
+      <c r="E1115" t="inlineStr"/>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="inlineStr"/>
+      <c r="H1115" t="inlineStr"/>
+      <c r="I1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>Title: 290 Wine Shuttle Austin Connection</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr"/>
+      <c r="C1116" t="inlineStr"/>
+      <c r="D1116" t="inlineStr"/>
+      <c r="E1116" t="inlineStr"/>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="inlineStr"/>
+      <c r="H1116" t="inlineStr"/>
+      <c r="I1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr"/>
+      <c r="C1117" t="inlineStr"/>
+      <c r="D1117" t="inlineStr"/>
+      <c r="E1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="inlineStr"/>
+      <c r="H1117" t="inlineStr"/>
+      <c r="I1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr"/>
+      <c r="C1118" t="inlineStr"/>
+      <c r="D1118" t="inlineStr"/>
+      <c r="E1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="inlineStr"/>
+      <c r="H1118" t="inlineStr"/>
+      <c r="I1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 320728P2775</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr"/>
+      <c r="C1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr"/>
+      <c r="E1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr"/>
+      <c r="H1119" t="inlineStr"/>
+      <c r="I1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>Summarized description: Expert sommeliers and winemakers will guide you through tastings of exceptional wines, sharing their deep knowledge and passion for winemaking. Don't miss the opportunity to create lasting memories on this Half-Day Private Texas Hill Country Wine Tour.</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr"/>
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr"/>
+      <c r="E1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr"/>
+      <c r="H1120" t="inlineStr"/>
+      <c r="I1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>Title: Half-Day Private Texas Hill Country Wine Tour from Austin</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr"/>
+      <c r="C1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr"/>
+      <c r="E1121" t="inlineStr"/>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="inlineStr"/>
+      <c r="H1121" t="inlineStr"/>
+      <c r="I1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr"/>
+      <c r="C1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr"/>
+      <c r="E1122" t="inlineStr"/>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr"/>
+      <c r="H1122" t="inlineStr"/>
+      <c r="I1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr"/>
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="inlineStr"/>
+      <c r="E1123" t="inlineStr"/>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="inlineStr"/>
+      <c r="H1123" t="inlineStr"/>
+      <c r="I1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 260194P1</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr"/>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="inlineStr"/>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="inlineStr"/>
+      <c r="H1124" t="inlineStr"/>
+      <c r="I1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour the historic German settlement in the exquisite Texas Hill Country. Ride VIP on a Deluxe Motor Coach with reclining seats and extra legroom, perfect for napping.</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
+      <c r="D1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr"/>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
+      <c r="I1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>Title: Fredericksburg Full-Day Guided Trip from Austin</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr"/>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="inlineStr"/>
+      <c r="H1126" t="inlineStr"/>
+      <c r="I1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr"/>
+      <c r="D1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
+      <c r="H1127" t="inlineStr"/>
+      <c r="I1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr"/>
+      <c r="C1128" t="inlineStr"/>
+      <c r="D1128" t="inlineStr"/>
+      <c r="E1128" t="inlineStr"/>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="inlineStr"/>
+      <c r="H1128" t="inlineStr"/>
+      <c r="I1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr"/>
+      <c r="C1129" t="inlineStr"/>
+      <c r="D1129" t="inlineStr"/>
+      <c r="E1129" t="inlineStr"/>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="inlineStr"/>
+      <c r="H1129" t="inlineStr"/>
+      <c r="I1129" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
